--- a/Projects/KCUS/Data/KEngine_KC_US.xlsx
+++ b/Projects/KCUS/Data/KEngine_KC_US.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Simple KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,6 +64,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -75,1550 +76,1547 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="512">
-  <si>
-    <t>KPI Level 1 Name</t>
-  </si>
-  <si>
-    <t>Row # on qualitative file</t>
-  </si>
-  <si>
-    <t>KPI Level 2 Name</t>
-  </si>
-  <si>
-    <t>Store_Type</t>
-  </si>
-  <si>
-    <t>Scene_Type </t>
-  </si>
-  <si>
-    <t>KPI_Type</t>
-  </si>
-  <si>
-    <t>min_number_of_facings</t>
-  </si>
-  <si>
-    <t>min_number_of_shelves</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Entity Value</t>
-  </si>
-  <si>
-    <t>Param1</t>
-  </si>
-  <si>
-    <t>Value1</t>
-  </si>
-  <si>
-    <t>Param2</t>
-  </si>
-  <si>
-    <t>Value2</t>
-  </si>
-  <si>
-    <t>Param3</t>
-  </si>
-  <si>
-    <t>Value3</t>
-  </si>
-  <si>
-    <t>Param4</t>
-  </si>
-  <si>
-    <t>Value4</t>
-  </si>
-  <si>
-    <t>Change_Matrix</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>KC Score</t>
-  </si>
-  <si>
-    <t>POISE anchor </t>
-  </si>
-  <si>
-    <t>Adult Incontinence</t>
-  </si>
-  <si>
-    <t>Anchor</t>
-  </si>
-  <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>POISE</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>beginning/end</t>
-  </si>
-  <si>
-    <t>DEPEND for Men anchor </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>DEPEND</t>
-  </si>
-  <si>
-    <t>target_group</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
-    <t>Huggies wipes anchor</t>
-  </si>
-  <si>
-    <t>Baby Care</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>BABY WIPES</t>
-  </si>
-  <si>
-    <t>HUGGIES</t>
-  </si>
-  <si>
-    <t>wipes is a category bot is being captured in one scene with diapers?</t>
-  </si>
-  <si>
-    <t>Scott 1000 anchor</t>
-  </si>
-  <si>
-    <t>Intimate Care</t>
-  </si>
-  <si>
-    <t>Sub Brand</t>
-  </si>
-  <si>
-    <t>sub_brand</t>
-  </si>
-  <si>
-    <t>SCOTT 1000</t>
-  </si>
-  <si>
-    <t>Cottonelle anchor </t>
-  </si>
-  <si>
-    <t>COTTONELLE</t>
-  </si>
-  <si>
-    <t>FCC anchor </t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
-    <t>Family FCC</t>
-  </si>
-  <si>
-    <t>Huggies anchor </t>
-  </si>
-  <si>
-    <t>DIAPERS</t>
-  </si>
-  <si>
-    <t>diapers is a category bot is being captured in one scene with diapers?</t>
-  </si>
-  <si>
-    <t>Little Snugglers anchor </t>
-  </si>
-  <si>
-    <t>Mass, Grocery, Drug</t>
-  </si>
-  <si>
-    <t>HUGGIES LTL SNGLRS/MVRS</t>
-  </si>
-  <si>
-    <t>how do we relate th position to the "huggies block"</t>
-  </si>
-  <si>
-    <t>Snug &amp; Dry anchor</t>
-  </si>
-  <si>
-    <t>Dollar</t>
-  </si>
-  <si>
-    <t>HUGGIES SNUG &amp; DRY</t>
-  </si>
-  <si>
-    <t>OR: start with category&gt;&gt;brand&gt;&gt;sub brand</t>
-  </si>
-  <si>
-    <t>Kleenex anchor </t>
-  </si>
-  <si>
-    <t>Facial Tissue</t>
-  </si>
-  <si>
-    <t>KLEENEX</t>
-  </si>
-  <si>
-    <t>POISE Impressa eye level  - Food, Mass, Dollar</t>
-  </si>
-  <si>
-    <t>Food, Mass, Dollar</t>
-  </si>
-  <si>
-    <t>Eye Level</t>
-  </si>
-  <si>
-    <t>POISE IMPRESSA</t>
-  </si>
-  <si>
-    <t>Shelves </t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>POISE Impressa eye level - Drug</t>
-  </si>
-  <si>
-    <t>Drug</t>
-  </si>
-  <si>
-    <t>1, 2, 3</t>
-  </si>
-  <si>
-    <t>POISE Thin Shape eye level </t>
-  </si>
-  <si>
-    <t>POISE THIN SHAPE</t>
-  </si>
-  <si>
-    <t>DEPEND Mainline packs eye level </t>
-  </si>
-  <si>
-    <t>Sub brand</t>
-  </si>
-  <si>
-    <t>DEPEND MAINLINE</t>
-  </si>
-  <si>
-    <t>DEPEND SP conv. packs eye level</t>
-  </si>
-  <si>
-    <t>quality_tier</t>
-  </si>
-  <si>
-    <t>SUPER PREMIUM</t>
-  </si>
-  <si>
-    <t>DEPEND Mainline &amp; SP conv. packs eye level  - Depend mainline</t>
-  </si>
-  <si>
-    <t>DEPEND Mainline &amp; SP conv. packs eye level  - Super Premium</t>
-  </si>
-  <si>
-    <t>Bath FCC eye level</t>
-  </si>
-  <si>
-    <t>Sub Category</t>
-  </si>
-  <si>
-    <t>UbK Fitness? eye level - Food, Mass, Dollar</t>
-  </si>
-  <si>
-    <t>Feminine care</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>UBK Fitness</t>
-  </si>
-  <si>
-    <t>UbK Fitness?eye level - Drug</t>
-  </si>
-  <si>
-    <t>Towels new solutions, formats, and designs eye level</t>
-  </si>
-  <si>
-    <t>Paper Towels</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>item_code</t>
-  </si>
-  <si>
-    <t>003600030350, 003600044152, 003600044159, 003600047276</t>
-  </si>
-  <si>
-    <t>Kleenex Hand Towels eye level</t>
-  </si>
-  <si>
-    <t>Baby Wipes organized from smallest pack to largest pack vertically</t>
-  </si>
-  <si>
-    <t>Flow</t>
-  </si>
-  <si>
-    <t>Products Size</t>
-  </si>
-  <si>
-    <t>package_size</t>
-  </si>
-  <si>
-    <t>Tubs/Travel Packs, Smaller RFTs/Refills, Medium RFTs/Refills, Largest Packs
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="511">
+  <si>
+    <t xml:space="preserve">KPI Level 1 Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row # on qualitative file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI Level 2 Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene_Type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_number_of_facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_number_of_shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change_Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POISE anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Incontinence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beginning/end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPEND for Men anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPEND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huggies wipes anchor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BABY WIPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGGIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wipes is a category bot is being captured in one scene with diapers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott 1000 anchor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intimate Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCOTT 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cottonelle anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTTONELLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCC anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family FCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huggies anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diapers is a category bot is being captured in one scene with diapers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Snugglers anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass, Grocery, Drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGGIES LTL SNGLRS/MVRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how do we relate th position to the "huggies block"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snug &amp; Dry anchor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGGIES SNUG &amp; DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR: start with category&gt;&gt;brand&gt;&gt;sub brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleenex anchor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial Tissue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLEENEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POISE Impressa eye level  - Food, Mass, Dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food, Mass, Dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POISE IMPRESSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POISE Impressa eye level - Drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POISE Thin Shape eye level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POISE THIN SHAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPEND Mainline packs eye level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPEND MAINLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPEND SP conv. packs eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quality_tier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPER PREMIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPEND Mainline &amp; SP conv. packs eye level  - Depend mainline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPEND Mainline &amp; SP conv. packs eye level  - Super Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bath FCC eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UbK Fitness? eye level - Food, Mass, Dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminine care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBK Fitness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UbK Fitness?eye level - Drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towels new solutions, formats, and designs eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper Towels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003600030350, 003600044152, 003600044159, 003600047276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleenex Hand Towels eye level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes organized from smallest pack to largest pack vertically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubs/Travel Packs, Smaller RFTs/Refills, Medium RFTs/Refills, Largest Packs
 </t>
   </si>
   <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>Discuss with Moshe</t>
-  </si>
-  <si>
-    <t>Huggies brand flow left to right by Step Size</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>9661913131, 3600043632, 9661910101,3600043634, 9661914141, 3600043635, 9661911223, 3600043636, 9661923232, 3600043637, 9661927272, 3600043638, 9661939448, 3600041568</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>POISE closest to Feminine Care</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>Survey Question</t>
-  </si>
-  <si>
-    <t>Diapers Private Label between Huggies and Pampers/Luvs </t>
-  </si>
-  <si>
-    <t>Flow between</t>
-  </si>
-  <si>
-    <t>HUGGIES, PAMPERS, LUVS</t>
-  </si>
-  <si>
-    <t>Costco - PVT LBL, BABIES R US,Bjs, CVS HEALTH, CVS,KIDGETS, COMFORTS, Check This Out, UP &amp; UP, PARENT'S CHOICE, EMBER'S MARK, Well Beginnings</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>discuss with moshe</t>
-  </si>
-  <si>
-    <t>Does Ultra Soft anchor at least one Kleenex block?</t>
-  </si>
-  <si>
-    <t>Facial Tissue </t>
-  </si>
-  <si>
-    <t>KLEENEX ULTRASOFT</t>
-  </si>
-  <si>
-    <t>KLEENEX MAINLINE, KLEENEX LOTION, KLEENEX ULTRASOFT, KLEENEX A-V,  KLEENEX COOL TOUCH, KLEENEX EXPRESSIONS, KLEENEX PERFECT FIT, KLEENEX H-E </t>
-  </si>
-  <si>
-    <t>KLEENEX MAINLINE, KLEENEX LOTION, KLEENEX ULTRASOFT, KLEENEX A-V,  KLEENEX COOL TOUCH, KLEENEX EXPRESSIONS,  KLEENEX PERFECT FIT, KLEENEX H-E </t>
-  </si>
-  <si>
-    <t>Ortal- needs to be at least 2 Kleenex SKUs</t>
-  </si>
-  <si>
-    <t>row#</t>
-  </si>
-  <si>
-    <t>additional_attribute_8</t>
-  </si>
-  <si>
-    <t>Scene_Type</t>
-  </si>
-  <si>
-    <t>Tested Product Group</t>
-  </si>
-  <si>
-    <t>Entity 2</t>
-  </si>
-  <si>
-    <t>Tested Product Group 2 </t>
-  </si>
-  <si>
-    <t>Entity 3</t>
-  </si>
-  <si>
-    <t>Tested Product Group 3 </t>
-  </si>
-  <si>
-    <t>Ignore Empty</t>
-  </si>
-  <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Allow Flexibility - ortal</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - babyganics</t>
-  </si>
-  <si>
-    <t>Blocked Together</t>
-  </si>
-  <si>
-    <t>babyganics</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>-1 to 1</t>
-  </si>
-  <si>
-    <t>"For each brand"</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - The Honest Co.</t>
-  </si>
-  <si>
-    <t>The Honest Co.</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - Seventh Generation</t>
-  </si>
-  <si>
-    <t>Seventh Generation</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - HUGGIES</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - PAMPERS</t>
-  </si>
-  <si>
-    <t>PAMPERS</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - Ricitos de Oro</t>
-  </si>
-  <si>
-    <t>Ricitos de Oro</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - Water Wipes</t>
-  </si>
-  <si>
-    <t>Water Wipes</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - Earths Best Tendecare</t>
-  </si>
-  <si>
-    <t>Earths Best Tendecare</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - Soffs</t>
-  </si>
-  <si>
-    <t>Soffs</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - Pure n Gentle</t>
-  </si>
-  <si>
-    <t>Pure n Gentle</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - A_O BRANDS</t>
-  </si>
-  <si>
-    <t>A_O BRANDS</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - Costco - PVT LBL</t>
-  </si>
-  <si>
-    <t>Costco</t>
-  </si>
-  <si>
-    <t>Costco - PVT LBL</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - BABIES R US</t>
-  </si>
-  <si>
-    <t>INT, BRU</t>
-  </si>
-  <si>
-    <t>BABIES R US</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - BJs</t>
-  </si>
-  <si>
-    <t>BJs</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - CVS</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - CVS HEALTH</t>
-  </si>
-  <si>
-    <t>CVS HEALTH</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - KIDGETS</t>
-  </si>
-  <si>
-    <t>Family Dollar</t>
-  </si>
-  <si>
-    <t>KIDGETS</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - Check This Out</t>
-  </si>
-  <si>
-    <t>Dillons, Fred Meyer, Fry's, King Soopers, Kroger, Smith's, Ralphs, Harris Teeter, Food 4 Less</t>
-  </si>
-  <si>
-    <t>Check This Out</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - COMFORTS</t>
-  </si>
-  <si>
-    <t>COMFORTS</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - MEIJER</t>
-  </si>
-  <si>
-    <t>Meijer</t>
-  </si>
-  <si>
-    <t>MEIJER</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - UP &amp; UP</t>
-  </si>
-  <si>
-    <t>UP &amp; UP</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - PARENTS CHOICE</t>
-  </si>
-  <si>
-    <t>Walmart</t>
-  </si>
-  <si>
-    <t>PARENT'S CHOICE</t>
-  </si>
-  <si>
-    <t>Baby Wipes vertically blocked - Well Beginnings</t>
-  </si>
-  <si>
-    <t>Walgreens</t>
-  </si>
-  <si>
-    <t>Well Beginnings</t>
-  </si>
-  <si>
-    <t>FCC blocked</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - The Honest Co.</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - babyganics</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - Earths Best Tendecare</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - Seventh Generation</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - HUGGIES</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - LUVS</t>
-  </si>
-  <si>
-    <t>LUVS</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - PAMPERS</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - Costco - PVT LBL</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - BABIES R US</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - BJs</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - CVS HEALTH</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - CVS</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - KIDGETS</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - COMFORTS</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - Check This Out</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - UP &amp; UP</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - PARENTS CHOICE</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - MEMBERS MARK</t>
-  </si>
-  <si>
-    <t>Sams</t>
-  </si>
-  <si>
-    <t>MEMBERS MARK</t>
-  </si>
-  <si>
-    <t>Diapers vertically blocked - Well Beginnings</t>
-  </si>
-  <si>
-    <t>Facial colors blocked  - Blue</t>
-  </si>
-  <si>
-    <t>package_color</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Facial colors blocked  - Green</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Facial colors blocked  - Various</t>
-  </si>
-  <si>
-    <t>Various</t>
-  </si>
-  <si>
-    <t>Facial colors blocked  - Purple</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Facial colors blocked  - Orange</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Facial colors blocked  - Aqua</t>
-  </si>
-  <si>
-    <t>Aqua</t>
-  </si>
-  <si>
-    <t>Feminine Care Active codes blocked</t>
-  </si>
-  <si>
-    <t>TAMPAX PEARL ACTIVE, PLAYTEX SPORT, UBK Fitness</t>
-  </si>
-  <si>
-    <t>SP &amp; Prem UBK tampons blocked</t>
-  </si>
-  <si>
-    <t>TAMPONS</t>
-  </si>
-  <si>
-    <t>U BY KOTEX</t>
-  </si>
-  <si>
-    <t>All products are either premium or SP so no need to add this to the rule</t>
-  </si>
-  <si>
-    <t>SP &amp; Prem UBK liners blocked</t>
-  </si>
-  <si>
-    <t>PANTILINERS</t>
-  </si>
-  <si>
-    <t>SP &amp; Prem UBK pads blocked</t>
-  </si>
-  <si>
-    <t>PADS</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - Seventh Generation</t>
-  </si>
-  <si>
-    <t>TRAINING, YOUTH &amp; SWIM PANTS</t>
-  </si>
-  <si>
-    <t>Youth, Swim, training?</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - HUGGIES LITTLE SWIMMERS</t>
-  </si>
-  <si>
-    <t>HUGGIES LITTLE SWIMMERS</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - GOODNITES</t>
-  </si>
-  <si>
-    <t>GOODNITES</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - PULL-UPS</t>
-  </si>
-  <si>
-    <t>PULL-UPS</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - PAMPERS TRAINING PANTS</t>
-  </si>
-  <si>
-    <t>PAMPERS TRAINING PANTS</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - PAMPERS SPLASHERS</t>
-  </si>
-  <si>
-    <t>PAMPERS SPLASHERS</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - PAMPERS UNDERJAMS</t>
-  </si>
-  <si>
-    <t>PAMPERS UNDERJAMS</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - BABIES R US</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - CVS HEALTH</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - CVS</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - KIDGETS</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - COMFORTS</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - Check This Out</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - MEIJER</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - UP &amp; UP</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - PARENTS CHOICE</t>
-  </si>
-  <si>
-    <t>Pants brands vertically blocked - BJs</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - GOODNITES</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Boy</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - PULL-UPS</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - PAMPERS TRAINING PANTS</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - PAMPERS SPLASHERS</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - PAMPERS UNDERJAMS</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - BABIES R US</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - CVS HEALTH</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - CVS</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - KIDGETS</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - COMFORTS</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - Check This Out</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - MEIJER</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - UP &amp; UP</t>
-  </si>
-  <si>
-    <t>Pants Boys blocked within a brand - PARENTS CHOICE</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - Seventh Generation</t>
-  </si>
-  <si>
-    <t>Girl</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - HUGGIES LITTLE SWIMMERS</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - GOODNITES</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - PULL-UPS</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - PAMPERS TRAINING PANTS</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - PAMPERS SPLASHERS</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - PAMPERS UNDERJAMS</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - BABIES R US</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - CVS HEALTH</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - CVS</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - KIDGETS</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - COMFORTS</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - Check This Out</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - MEIJER</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - UP &amp; UP</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - PARENTS CHOICE</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - Seventh Generation</t>
-  </si>
-  <si>
-    <t>Unisex</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - HUGGIES LITTLE SWIMMERS</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - GOODNITES</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - BABIES R US</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - CVS HEALTH</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - CVS</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - COMFORTS</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - Check This Out</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - UP &amp; UP</t>
-  </si>
-  <si>
-    <t>Pants Unisex blocked within a brand - PARENTS CHOICE</t>
-  </si>
-  <si>
-    <t>Pants Girls blocked within a brand - BJs</t>
-  </si>
-  <si>
-    <t>Pants subvariants grouped</t>
-  </si>
-  <si>
-    <t>PULL-UPS NIGHT*TIME,PULL-UPS W,LEARNING DESIGNS,PULL-UPS COOL &amp; LEARN</t>
-  </si>
-  <si>
-    <t>Youth Pants block next to training pants block</t>
-  </si>
-  <si>
-    <t>Relative position of Blocked Together</t>
-  </si>
-  <si>
-    <t>TRAINING PANTS</t>
-  </si>
-  <si>
-    <t>YOUTH PANTS</t>
-  </si>
-  <si>
-    <t>Entity 1</t>
-  </si>
-  <si>
-    <t>Tested Entity 1</t>
-  </si>
-  <si>
-    <t>Tested Entity 2</t>
-  </si>
-  <si>
-    <t>Anchor Entity 1</t>
-  </si>
-  <si>
-    <t>Anchor param 1</t>
-  </si>
-  <si>
-    <t>Anchor Entity 2</t>
-  </si>
-  <si>
-    <t>Anchor param 2</t>
-  </si>
-  <si>
-    <t>Above Allowed?</t>
-  </si>
-  <si>
-    <t>Above distance (shelves) </t>
-  </si>
-  <si>
-    <t>Bellow Allowed?</t>
-  </si>
-  <si>
-    <t>Below distance (shelves)</t>
-  </si>
-  <si>
-    <t>Left Allowed?</t>
-  </si>
-  <si>
-    <t>Left distance (facings)</t>
-  </si>
-  <si>
-    <t>Right Allowed?</t>
-  </si>
-  <si>
-    <t>Right distance (facings)</t>
-  </si>
-  <si>
-    <t>Strict</t>
-  </si>
-  <si>
-    <t>Huggies Wipes in the same aisle as Huggies Diapers </t>
-  </si>
-  <si>
-    <t>Assortment</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Cottonelle next to Charmin</t>
-  </si>
-  <si>
-    <t>Relative Position</t>
-  </si>
-  <si>
-    <t>CHARMIN</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Ortal will check</t>
-  </si>
-  <si>
-    <t>Swim pants shelved within diapers</t>
-  </si>
-  <si>
-    <t>SWIM PANTS</t>
-  </si>
-  <si>
-    <t>Ortal will check. Dorit: add - if Kleenex blocked together- done</t>
-  </si>
-  <si>
-    <t>Are pants positioned after diapers?</t>
-  </si>
-  <si>
-    <t>Does Brand-PullUps anchor the Pants section?</t>
-  </si>
-  <si>
-    <t>Seventh Generation, HUGGIES LITTLE SWIMMERS, GOODNITES, PAMPERS TRAINING PANTS, PAMPERS SPLASHERS, PAMPERS UNDERJAMS, BABIES R US, CVS HEALTH, CVS, KIDGETS, COMFORTS, Check This Out, MEIJER, UP &amp; UP, PARENT'S CHOICE, Bjs</t>
-  </si>
-  <si>
-    <t>Moshe- anchor question</t>
-  </si>
-  <si>
-    <t>Viva next to Bounty Mainline</t>
-  </si>
-  <si>
-    <t>VIVA</t>
-  </si>
-  <si>
-    <t>BOUNTY MAINLINE</t>
-  </si>
-  <si>
-    <t>Scott next to value brands </t>
-  </si>
-  <si>
-    <t>SCOTT</t>
-  </si>
-  <si>
-    <t>BOUNTY, Costco - PVT LBL, FAMILY DOLLAR, GREAT VALUE, Kroger - Home Sense, NICE, SPARKLE, TOTAL HOME, UP &amp; UP, CVS Just The Basics</t>
-  </si>
-  <si>
-    <t>need to check again with Steve</t>
-  </si>
-  <si>
-    <t>Check again with Ortal</t>
-  </si>
-  <si>
-    <t>Trax Definition</t>
-  </si>
-  <si>
-    <t>KC Definition</t>
-  </si>
-  <si>
-    <t>Business Unit</t>
-  </si>
-  <si>
-    <t>Sub-Category</t>
-  </si>
-  <si>
-    <t>Ø  Intimate Care (includes the following categories):</t>
-  </si>
-  <si>
-    <t>FAMILY CARE</t>
-  </si>
-  <si>
-    <t>PERINEAL</t>
-  </si>
-  <si>
-    <t>&amp;#8226      Toilet Paper</t>
-  </si>
-  <si>
-    <t>Dry Bath</t>
-  </si>
-  <si>
-    <t>&amp;#8226      Wet Bath (Flushable Cleansing Cloths)</t>
-  </si>
-  <si>
-    <t>Ø  Paper Towels</t>
-  </si>
-  <si>
-    <t>TOWELS</t>
-  </si>
-  <si>
-    <t>Ø  Facial Tissue (i.e. Kleenex/Puffs)</t>
-  </si>
-  <si>
-    <t>FACIAL TISSUE</t>
-  </si>
-  <si>
-    <t>Ø  Feminine Care (includes the following categories):</t>
-  </si>
-  <si>
-    <t>ADULT/FEM CARE</t>
-  </si>
-  <si>
-    <t>FEM CARE</t>
-  </si>
-  <si>
-    <t>&amp;#8226      Pads / Liners</t>
-  </si>
-  <si>
-    <t>PADS, PANTILINERS</t>
-  </si>
-  <si>
-    <t>&amp;#8226      Tampons</t>
-  </si>
-  <si>
-    <t>Ø  Adult Incontinence</t>
-  </si>
-  <si>
-    <t>ADULT INCONTINENCE PROTECTION</t>
-  </si>
-  <si>
-    <t>Ø  Baby Care (includes the following categories):</t>
-  </si>
-  <si>
-    <t>BABY/CHILD CARE</t>
-  </si>
-  <si>
-    <t>&amp;#8226      Baby Diapers</t>
-  </si>
-  <si>
-    <t>&amp;#8226      Training Pants</t>
-  </si>
-  <si>
-    <t>&amp;#8226      Baby Wipes</t>
-  </si>
-  <si>
-    <t>Scene Type</t>
-  </si>
-  <si>
-    <t>Adult incontinence</t>
-  </si>
-  <si>
-    <t>Adult incontinence protection</t>
-  </si>
-  <si>
-    <t>Adult Wipes</t>
-  </si>
-  <si>
-    <t>Baby care</t>
-  </si>
-  <si>
-    <t>Diapers</t>
-  </si>
-  <si>
-    <t>Baby wipes</t>
-  </si>
-  <si>
-    <t>Training, youth and swim pants</t>
-  </si>
-  <si>
-    <t>Facial Tissues</t>
-  </si>
-  <si>
-    <t>Perineal</t>
-  </si>
-  <si>
-    <t>Paper towels</t>
-  </si>
-  <si>
-    <t>Towels</t>
-  </si>
-  <si>
-    <t>List of additional labels:</t>
-  </si>
-  <si>
-    <t>Package Size</t>
-  </si>
-  <si>
-    <t>Package color</t>
-  </si>
-  <si>
-    <t>Sub Category Name</t>
-  </si>
-  <si>
-    <t>Sub Brand name</t>
-  </si>
-  <si>
-    <t>Qualitative Question</t>
-  </si>
-  <si>
-    <t>KPI in "Trax language"</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Adult Care</t>
-  </si>
-  <si>
-    <t>Does POISE anchor liners &amp; pads?</t>
-  </si>
-  <si>
-    <t>Are there at least 2 shelves which these SKU's in the beginning or end?</t>
-  </si>
-  <si>
-    <t>Are there at least 2 shelves which POISE SKU in the beginning ro end of the aisle?</t>
-  </si>
-  <si>
-    <t>Is POISE closest to Feminine Care?</t>
-  </si>
-  <si>
-    <t>A survey question: "Is POISE closest to Feminine Care?"</t>
-  </si>
-  <si>
-    <t>Different scene types</t>
-  </si>
-  <si>
-    <t>Is POISE Impressa at eye level (2nd/3rd shelf)? Food/Mass/Dollar channels</t>
-  </si>
-  <si>
-    <t>Are all of these SKU's positioned on the same 2nd/3rd shelf?</t>
-  </si>
-  <si>
-    <t>All 4 SKU's need to be on the SAME shelf Food/Mass/Dollar 2nd or 3rd shelf. For Drug channel can be 1st, 2nd or 3rd</t>
-  </si>
-  <si>
-    <t>Eye Level (position)</t>
-  </si>
-  <si>
-    <t>Is POISE Impressa at eye level (2nd/3rd shelf)?  Drug channel </t>
-  </si>
-  <si>
-    <t>Are all of these SKU's positioned on the same 1st/2nd/3rd shelf?</t>
-  </si>
-  <si>
-    <t>Is POISE Thin Shape at eye level (2nd/3rd shelf)?</t>
-  </si>
-  <si>
-    <t>Are there at least 2 SKU's positioned on the same 2nd/3rd shelf?</t>
-  </si>
-  <si>
-    <t>At least 2 codes at 2nd or 3rd shelves on the same shelf</t>
-  </si>
-  <si>
-    <t>Are DEPEND for Men blocked at beginning or end of aisle?</t>
-  </si>
-  <si>
-    <t>At least 2 shelves, ends or begins the category/scene</t>
-  </si>
-  <si>
-    <t>Are DEPEND Mainline &amp; SP conv. packs at eye level?  (2nd/3rd shelf)</t>
-  </si>
-  <si>
-    <t>Are there at least 3 SKU's positioned on the same 2nd/3rd shelf?</t>
-  </si>
-  <si>
-    <t>SP=super premium. Food/Mass/Dollar 2nd or 3rd shelf. For Drug channel can be 1st, 2nd or 3rd. At least 3 SKUs</t>
-  </si>
-  <si>
-    <t>Are there at least 3 SKU's positioned on the same 1st/2nd/3rd shelf?</t>
-  </si>
-  <si>
-    <t>Baby Wipes</t>
-  </si>
-  <si>
-    <t>Are all  brands vertically blocked?</t>
-  </si>
-  <si>
-    <t>For each Brand - is it blocked together vertically?</t>
-  </si>
-  <si>
-    <t>Recognize brand block vertically blocked</t>
-  </si>
-  <si>
-    <t>Block Together</t>
-  </si>
-  <si>
-    <t>Are Huggies wipes anchoring the baby wipes section? </t>
-  </si>
-  <si>
-    <t>Is there at least one SKU from this brand which is in the beginning or the end? (regardless of shelf)</t>
-  </si>
-  <si>
-    <t>the whole category is taken on the scene</t>
-  </si>
-  <si>
-    <t>Is the shelf organized from smallest pack to largest pack vertically? </t>
-  </si>
-  <si>
-    <t>Vertical flow of SKU's</t>
-  </si>
-  <si>
-    <t>Each package size has a different SKU</t>
-  </si>
-  <si>
-    <t>Position/Flow</t>
-  </si>
-  <si>
-    <t>Are Huggies Wipes in the same aisle as Huggies Diapers? (Club only question) </t>
-  </si>
-  <si>
-    <t>Are these SKU's positioned on the same aisle as other SKU's</t>
-  </si>
-  <si>
-    <t>Club only - need to define the "KPI sets".
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss with Moshe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huggies brand flow left to right by Step Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9661913131, 3600043632, 9661910101,3600043634, 9661914141, 3600043635, 9661911223, 3600043636, 9661923232, 3600043637, 9661927272, 3600043638, 9661939448, 3600041568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POISE closest to Feminine Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers Private Label between Huggies and Pampers/Luvs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGGIES, PAMPERS, LUVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costco - PVT LBL, BABIES R US,Bjs, CVS HEALTH, CVS,KIDGETS, COMFORTS, Check This Out, UP &amp; UP, PARENT'S CHOICE, EMBER'S MARK, Well Beginnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discuss with moshe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Ultra Soft anchor at least one Kleenex block?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial Tissue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLEENEX ULTRASOFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLEENEX MAINLINE, KLEENEX LOTION, KLEENEX ULTRASOFT, KLEENEX A-V,  KLEENEX COOL TOUCH, KLEENEX EXPRESSIONS, KLEENEX PERFECT FIT, KLEENEX H-E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLEENEX MAINLINE, KLEENEX LOTION, KLEENEX ULTRASOFT, KLEENEX A-V,  KLEENEX COOL TOUCH, KLEENEX EXPRESSIONS,  KLEENEX PERFECT FIT, KLEENEX H-E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortal- needs to be at least 2 Kleenex SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additional_attribute_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Product Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Product Group 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Product Group 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Flexibility - ortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - babyganics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">babyganics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 to 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"For each brand"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - The Honest Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Honest Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - Seventh Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seventh Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - HUGGIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - PAMPERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMPERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - Ricitos de Oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricitos de Oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - Water Wipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Wipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - Earths Best Tendecare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earths Best Tendecare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - Soffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - Pure n Gentle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure n Gentle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - A_O BRANDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_O BRANDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - Costco - PVT LBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costco - PVT LBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - BABIES R US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT, BRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BABIES R US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - BJs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - CVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - CVS HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVS HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - KIDGETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Dollar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIDGETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - Check This Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dillons, Fred Meyer, Fry's, King Soopers, Kroger, Smith's, Ralphs, Harris Teeter, Food 4 Less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check This Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - COMFORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMFORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - MEIJER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meijer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEIJER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - UP &amp; UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP &amp; UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - PARENTS CHOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walmart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARENT'S CHOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes vertically blocked - Well Beginnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walgreens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well Beginnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCC blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - The Honest Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - babyganics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - Earths Best Tendecare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - Seventh Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - HUGGIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - LUVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - PAMPERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - Costco - PVT LBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - BABIES R US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - BJs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - CVS HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - CVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - KIDGETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - COMFORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - Check This Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - UP &amp; UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - PARENTS CHOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - MEMBERS MARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEMBERS MARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diapers vertically blocked - Well Beginnings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial colors blocked  - Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial colors blocked  - Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial colors blocked  - Various</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial colors blocked  - Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial colors blocked  - Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial colors blocked  - Aqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminine Care Active codes blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPAX PEARL ACTIVE, PLAYTEX SPORT, UBK Fitness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP &amp; Prem UBK tampons blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U BY KOTEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All products are either premium or SP so no need to add this to the rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP &amp; Prem UBK liners blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANTILINERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP &amp; Prem UBK pads blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - Seventh Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAINING, YOUTH &amp; SWIM PANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youth, Swim, training?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - HUGGIES LITTLE SWIMMERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGGIES LITTLE SWIMMERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - GOODNITES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOODNITES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - PULL-UPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PULL-UPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - PAMPERS TRAINING PANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMPERS TRAINING PANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - PAMPERS SPLASHERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMPERS SPLASHERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - PAMPERS UNDERJAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMPERS UNDERJAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - BABIES R US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - CVS HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - CVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - KIDGETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - COMFORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - Check This Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - MEIJER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - UP &amp; UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - PARENTS CHOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants brands vertically blocked - BJs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - GOODNITES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - PULL-UPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - PAMPERS TRAINING PANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - PAMPERS SPLASHERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - PAMPERS UNDERJAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - BABIES R US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - CVS HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - CVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - KIDGETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - COMFORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - Check This Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - MEIJER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - UP &amp; UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Boys blocked within a brand - PARENTS CHOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - Seventh Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - HUGGIES LITTLE SWIMMERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - GOODNITES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - PULL-UPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - PAMPERS TRAINING PANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - PAMPERS SPLASHERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - PAMPERS UNDERJAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - BABIES R US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - CVS HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - CVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - KIDGETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - COMFORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - Check This Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - MEIJER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - UP &amp; UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - PARENTS CHOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - Seventh Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unisex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - HUGGIES LITTLE SWIMMERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - GOODNITES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - BABIES R US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - CVS HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - CVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - COMFORTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - Check This Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - UP &amp; UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Unisex blocked within a brand - PARENTS CHOICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants Girls blocked within a brand - BJs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants subvariants grouped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PULL-UPS NIGHT*TIME,PULL-UPS W,LEARNING DESIGNS,PULL-UPS COOL &amp; LEARN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youth Pants block next to training pants block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative position of Blocked Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAINING PANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOUTH PANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Entity 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Entity 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor Entity 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor Entity 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above Allowed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above distance (shelves) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellow Allowed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below distance (shelves)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left Allowed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left distance (facings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Allowed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right distance (facings)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huggies Wipes in the same aisle as Huggies Diapers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cottonelle next to Charmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortal will check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swim pants shelved within diapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWIM PANTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortal will check. Dorit: add - if Kleenex blocked together- done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are pants positioned after diapers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Brand-PullUps anchor the Pants section?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seventh Generation, HUGGIES LITTLE SWIMMERS, GOODNITES, PAMPERS TRAINING PANTS, PAMPERS SPLASHERS, PAMPERS UNDERJAMS, BABIES R US, CVS HEALTH, CVS, KIDGETS, COMFORTS, Check This Out, MEIJER, UP &amp; UP, PARENT'S CHOICE, Bjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moshe- anchor question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viva next to Bounty Mainline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOUNTY MAINLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott next to value brands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCOTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOUNTY, Costco - PVT LBL, FAMILY DOLLAR, GREAT VALUE, Kroger - Home Sense, NICE, SPARKLE, TOTAL HOME, UP &amp; UP, CVS Just The Basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to check again with Steve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check again with Ortal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trax Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ø  Intimate Care (includes the following categories):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMILY CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERINEAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;#8226      Toilet Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry Bath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;#8226      Wet Bath (Flushable Cleansing Cloths)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ø  Paper Towels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOWELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ø  Facial Tissue (i.e. Kleenex/Puffs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACIAL TISSUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ø  Feminine Care (includes the following categories):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADULT/FEM CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEM CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;#8226      Pads / Liners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADS, PANTILINERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;#8226      Tampons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ø  Adult Incontinence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADULT INCONTINENCE PROTECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ø  Baby Care (includes the following categories):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BABY/CHILD CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;#8226      Baby Diapers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;#8226      Training Pants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;#8226      Baby Wipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scene Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult incontinence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult incontinence protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Wipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby wipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training, youth and swim pants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial Tissues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perineal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper towels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Towels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of additional labels:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Category Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualitative Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI in "Trax language"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does POISE anchor liners &amp; pads?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there at least 2 shelves which these SKU's in the beginning or end?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there at least 2 shelves which POISE SKU in the beginning ro end of the aisle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is POISE closest to Feminine Care?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A survey question: "Is POISE closest to Feminine Care?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different scene types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is POISE Impressa at eye level (2nd/3rd shelf)? Food/Mass/Dollar channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are all of these SKU's positioned on the same 2nd/3rd shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All 4 SKU's need to be on the SAME shelf Food/Mass/Dollar 2nd or 3rd shelf. For Drug channel can be 1st, 2nd or 3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eye Level (position)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is POISE Impressa at eye level (2nd/3rd shelf)?  Drug channel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are all of these SKU's positioned on the same 1st/2nd/3rd shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is POISE Thin Shape at eye level (2nd/3rd shelf)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there at least 2 SKU's positioned on the same 2nd/3rd shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 2 codes at 2nd or 3rd shelves on the same shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are DEPEND for Men blocked at beginning or end of aisle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 2 shelves, ends or begins the category/scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are DEPEND Mainline &amp; SP conv. packs at eye level?  (2nd/3rd shelf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there at least 3 SKU's positioned on the same 2nd/3rd shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP=super premium. Food/Mass/Dollar 2nd or 3rd shelf. For Drug channel can be 1st, 2nd or 3rd. At least 3 SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there at least 3 SKU's positioned on the same 1st/2nd/3rd shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby Wipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are all  brands vertically blocked?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each Brand - is it blocked together vertically?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recognize brand block vertically blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Huggies wipes anchoring the baby wipes section? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there at least one SKU from this brand which is in the beginning or the end? (regardless of shelf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the whole category is taken on the scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the shelf organized from smallest pack to largest pack vertically? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical flow of SKU's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each package size has a different SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position/Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Huggies Wipes in the same aisle as Huggies Diapers? (Club only question) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are these SKU's positioned on the same aisle as other SKU's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club only - need to define the "KPI sets".
 Might need to do survey for this one for Club stores.
 Or we can assumne that we are checking if these SKU's are on the same scene</t>
   </si>
   <si>
-    <t>Bath</t>
-  </si>
-  <si>
-    <t>Does Scott 1000 anchor the aisle?</t>
-  </si>
-  <si>
-    <t>Scott 1000 is a brand - multiple pack sizes
+    <t xml:space="preserve">Bath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Scott 1000 anchor the aisle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott 1000 is a brand - multiple pack sizes
 anchor=Begin or end the aisle regardless of shelf</t>
   </si>
   <si>
-    <t>Does Cottonelle anchor the aisle?</t>
-  </si>
-  <si>
-    <t>Is Cottonelle next to Charmin?</t>
-  </si>
-  <si>
-    <t>Is there at least one SKU from this Brand next to one SKU from the other Brand?</t>
-  </si>
-  <si>
-    <t>At least one cottonelle next to charmin, does not need to be all</t>
-  </si>
-  <si>
-    <t>Does FCC anchor the aisle?</t>
-  </si>
-  <si>
-    <t>Are all FCC brands blocked together?</t>
-  </si>
-  <si>
-    <t>Is this Brand blocked together?</t>
-  </si>
-  <si>
-    <t>FCC = Flushable cleansing cloths.
+    <t xml:space="preserve">Does Cottonelle anchor the aisle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Cottonelle next to Charmin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there at least one SKU from this Brand next to one SKU from the other Brand?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one cottonelle next to charmin, does not need to be all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does FCC anchor the aisle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are all FCC brands blocked together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this Brand blocked together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCC = Flushable cleansing cloths.
 FCC will be part of a intimate care scene.
 All FCC SKU's should be on the same block</t>
   </si>
   <si>
-    <t>Is FCC at eye level?</t>
-  </si>
-  <si>
-    <t>Is there at least one SKU which positioned on the 2nd/3rd shelf?</t>
-  </si>
-  <si>
-    <t>At least one FCC SKU on the second or third shelf from the top</t>
-  </si>
-  <si>
-    <t>Are all brands vertically blocked?</t>
-  </si>
-  <si>
-    <t>Does Huggies Anchor the aisle?</t>
-  </si>
-  <si>
-    <t>Is Private Label between Huggies and Pampers/Luvs? </t>
-  </si>
-  <si>
-    <t>Is this Brand positioned between two other brands?</t>
-  </si>
-  <si>
-    <t>Within Huggies brand block, does Little Snugglers anchor? (Mass, Grocery, Drug) </t>
-  </si>
-  <si>
-    <t>Is there at least one SKU from this sub-brand which is in the beginning or the end? (regardless of shelf)</t>
-  </si>
-  <si>
-    <t>exception  KPI #22.  Dollar stores should be the anchor</t>
-  </si>
-  <si>
-    <t>Within Huggies brand block, does Snug &amp; Dry anchor? (Dollar Channel &amp; High Index Hispanic Grocery Retailers only)</t>
-  </si>
-  <si>
-    <t>Dollar General and Family Dollar stores only</t>
-  </si>
-  <si>
-    <t>Does Huggies brand flow left to right by Step Size (LS N-2 to LM 3-6)? (Club only question)</t>
-  </si>
-  <si>
-    <t>Flow (positions) of SKU's</t>
-  </si>
-  <si>
-    <t>Are swim pants shelved within diapers? </t>
-  </si>
-  <si>
-    <t>Are these SKU's next to (adjacent) other SKU's?</t>
-  </si>
-  <si>
-    <t>Huggies Little Swimmers - Is little swimmers adjacent to Huggies Diaper Brand</t>
-  </si>
-  <si>
-    <t>Facial</t>
-  </si>
-  <si>
-    <t>Does Kleenex anchor the aisle?</t>
-  </si>
-  <si>
-    <t>Does Ultra Soft (purple) anchor at least one Kleenex block?</t>
-  </si>
-  <si>
-    <t>Is this SKU exist in the beginning or the end of the Brand block? (regardless of shelf)</t>
-  </si>
-  <si>
-    <t>we can check if there is Ultra Soft SKU next to at least 2 facings of Kleenex SKU's</t>
-  </si>
-  <si>
-    <t>Are colors/variants blocked together? (e.g., Purple, Green, Blue)</t>
-  </si>
-  <si>
-    <t>Are these SKU's blocked tother?</t>
-  </si>
-  <si>
-    <t>Each "color" has a different SKU - it will be 3 questions, one for each SKU (color)</t>
-  </si>
-  <si>
-    <t>7 colors</t>
-  </si>
-  <si>
-    <t>Is innovation at eye level? (e.g., Multicare*, Ultra Soft Go-Anywhere*)</t>
-  </si>
-  <si>
-    <t>Feminine Care</t>
-  </si>
-  <si>
-    <t>Are "active" codes blocked together?</t>
-  </si>
-  <si>
-    <t>Are these SKU's blocked together?</t>
-  </si>
-  <si>
-    <t>Very specific brands/SKUs. Tampax Active, Playtex Sports, UbK Fitness, etc all blocked together. Can be horzontal or vertical blocks</t>
-  </si>
-  <si>
-    <t>Is UbK Fitness at eye level? Food/Mass/Dollar channels</t>
-  </si>
-  <si>
-    <t>Food/Mass/Dollar 2nd or 3rd shelf. For Drug channel can be 1st, 2nd or 3rd. Minimum 3 SKUs</t>
-  </si>
-  <si>
-    <t>Is UbK Fitness at eye level? Drug channel</t>
-  </si>
-  <si>
-    <t>Are SP &amp; Prem UBK blocked together within tampons?
+    <t xml:space="preserve">Is FCC at eye level?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there at least one SKU which positioned on the 2nd/3rd shelf?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one FCC SKU on the second or third shelf from the top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are all brands vertically blocked?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Huggies Anchor the aisle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Private Label between Huggies and Pampers/Luvs? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this Brand positioned between two other brands?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within Huggies brand block, does Little Snugglers anchor? (Mass, Grocery, Drug) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there at least one SKU from this sub-brand which is in the beginning or the end? (regardless of shelf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exception  KPI #22.  Dollar stores should be the anchor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within Huggies brand block, does Snug &amp; Dry anchor? (Dollar Channel &amp; High Index Hispanic Grocery Retailers only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dollar General and Family Dollar stores only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Huggies brand flow left to right by Step Size (LS N-2 to LM 3-6)? (Club only question)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow (positions) of SKU's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are swim pants shelved within diapers? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are these SKU's next to (adjacent) other SKU's?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huggies Little Swimmers - Is little swimmers adjacent to Huggies Diaper Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Kleenex anchor the aisle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Ultra Soft (purple) anchor at least one Kleenex block?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this SKU exist in the beginning or the end of the Brand block? (regardless of shelf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can check if there is Ultra Soft SKU next to at least 2 facings of Kleenex SKU's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are colors/variants blocked together? (e.g., Purple, Green, Blue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are these SKU's blocked tother?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each "color" has a different SKU - it will be 3 questions, one for each SKU (color)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 colors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is innovation at eye level? (e.g., Multicare*, Ultra Soft Go-Anywhere*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminine Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are "active" codes blocked together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are these SKU's blocked together?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very specific brands/SKUs. Tampax Active, Playtex Sports, UbK Fitness, etc all blocked together. Can be horzontal or vertical blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is UbK Fitness at eye level? Food/Mass/Dollar channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food/Mass/Dollar 2nd or 3rd shelf. For Drug channel can be 1st, 2nd or 3rd. Minimum 3 SKUs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is UbK Fitness at eye level? Drug channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are SP &amp; Prem UBK blocked together within tampons?
 Are SKU's blocked together?</t>
   </si>
   <si>
-    <t>Are SP &amp; Prem UBK blocked together within liners?</t>
-  </si>
-  <si>
-    <t>Are SP &amp; Prem UBK blocked together within pads?</t>
-  </si>
-  <si>
-    <t>Pants</t>
-  </si>
-  <si>
-    <t>Is these SKU's positioned next to other SKU's?</t>
-  </si>
-  <si>
-    <t>Cannot do if the two categoris will not be on the same scene (unless this is a survey)</t>
-  </si>
-  <si>
-    <t>Are youth pants grouped together after training pants?</t>
-  </si>
-  <si>
-    <t>Is this sub-category grouped together next to another sub-category grouped together?
+    <t xml:space="preserve">Are SP &amp; Prem UBK blocked together within liners?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are SP &amp; Prem UBK blocked together within pads?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is these SKU's positioned next to other SKU's?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot do if the two categoris will not be on the same scene (unless this is a survey)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are youth pants grouped together after training pants?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is this sub-category grouped together next to another sub-category grouped together?
 Are these two sub-categories located on separate adjacent bays?</t>
   </si>
   <si>
-    <t>Need to define Youth Pants/Training Pants as category/sub-category</t>
-  </si>
-  <si>
-    <t>Block Together + Position/Flow</t>
-  </si>
-  <si>
-    <t>Are the genders blocked within a brand? </t>
-  </si>
-  <si>
-    <t>Are these SKU's blocked together within Brand block?</t>
-  </si>
-  <si>
-    <t>block together of each SKU's group</t>
-  </si>
-  <si>
-    <t>Does PullUps anchor the Pants section?</t>
-  </si>
-  <si>
-    <t>Are these SKU's first in the category?</t>
-  </si>
-  <si>
-    <t>Need to define "Pants" as category/sub-category</t>
-  </si>
-  <si>
-    <t>Are the subvariants grouped?</t>
-  </si>
-  <si>
-    <t>Are the sub-brands (SKU's) blocked together? </t>
-  </si>
-  <si>
-    <t>Are all of the Pull-Ups sub-brands blocked together</t>
-  </si>
-  <si>
-    <t>Is Viva next to Bounty Mainline?</t>
-  </si>
-  <si>
-    <t>Is there at least one SKU from this brand which is located next to SKU from the second brand?</t>
-  </si>
-  <si>
-    <t>any viva next to a subset of bounty (sku list required)</t>
-  </si>
-  <si>
-    <t>Is Scott next to value brands (e.g., Bounty Basic, Sparkle, etc.?</t>
-  </si>
-  <si>
-    <t>any scott next to a subset of value products (sku list required)</t>
-  </si>
-  <si>
-    <t>Are new solutions, formats, and designs (e.g. Viva designs) at eye level?</t>
-  </si>
-  <si>
-    <t>any of the skus at eye level (sku list required) (at least 1 of the SKUs)</t>
-  </si>
-  <si>
-    <t>Are Kleenex Hand Towels at eye level?</t>
+    <t xml:space="preserve">Need to define Youth Pants/Training Pants as category/sub-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Together + Position/Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the genders blocked within a brand? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are these SKU's blocked together within Brand block?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block together of each SKU's group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does PullUps anchor the Pants section?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are these SKU's first in the category?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to define "Pants" as category/sub-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the subvariants grouped?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are the sub-brands (SKU's) blocked together? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are all of the Pull-Ups sub-brands blocked together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Viva next to Bounty Mainline?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there at least one SKU from this brand which is located next to SKU from the second brand?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any viva next to a subset of bounty (sku list required)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Scott next to value brands (e.g., Bounty Basic, Sparkle, etc.?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any scott next to a subset of value products (sku list required)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are new solutions, formats, and designs (e.g. Viva designs) at eye level?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any of the skus at eye level (sku list required) (at least 1 of the SKUs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are Kleenex Hand Towels at eye level?</t>
   </si>
 </sst>
 </file>
@@ -1626,7 +1624,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="14">
@@ -2213,33 +2211,33 @@
   </sheetPr>
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" activeCellId="0" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.663967611336"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="126.935222672065"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="127.46963562753"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0161943319838"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4777327935223"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.1497975708502"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3441295546559"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="26.9311740890688"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="26.3238866396761"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.6437246963563"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.2550607287449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="130.012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="130.619433198381"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="57.9068825910931"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.59109311740891"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,26 +3480,26 @@
   </sheetPr>
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.4453441295547"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0161943319838"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="88.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.9392712550607"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.2186234817814"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.6437246963563"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="78.2267206477733"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="94.0202429149798"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,7 +4715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
@@ -4762,7 +4760,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4807,7 +4805,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>21</v>
       </c>
@@ -4897,7 +4895,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
@@ -4942,7 +4940,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
@@ -4987,7 +4985,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
@@ -5032,7 +5030,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
@@ -5079,7 +5077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
@@ -5126,7 +5124,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
@@ -5173,7 +5171,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>21</v>
       </c>
@@ -5220,7 +5218,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
         <v>21</v>
       </c>
@@ -5267,7 +5265,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
@@ -5314,7 +5312,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
@@ -5361,7 +5359,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>21</v>
       </c>
@@ -5408,7 +5406,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -5455,7 +5453,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
@@ -5502,7 +5500,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -8826,32 +8824,32 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.9838056680162"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="107.655870445344"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="56.8785425101215"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="218.627530364372"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.0161943319838"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.1983805668016"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="39.7854251012146"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="58.2712550607288"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="110.303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.2712550607288"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="224.157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.36437246963563"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.59109311740891"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="38.4412955465587"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,17 +9384,17 @@
   </sheetPr>
   <dimension ref="1:90"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="114.404858299595"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="43" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="117.279352226721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="38.6842105263158"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="51.5384615384615"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="25.336032388664"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="43" width="8.93522267206478"/>
   </cols>
   <sheetData>
     <row r="1" s="45" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27983,7 +27981,7 @@
         <v>386</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -29011,7 +29009,7 @@
       <c r="A21" s="0"/>
       <c r="B21" s="57"/>
       <c r="C21" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -30039,7 +30037,7 @@
       <c r="A22" s="0"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
@@ -31066,10 +31064,10 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
       <c r="B23" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
@@ -33129,7 +33127,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
@@ -34156,10 +34154,10 @@
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>392</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>393</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
@@ -38263,7 +38261,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="59" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -40319,7 +40317,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -41347,7 +41345,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -44431,7 +44429,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -45459,7 +45457,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -46578,13 +46576,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="122.2995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.5748987854251"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2591093117409"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46592,30 +46590,30 @@
         <v>37</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="D1" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>401</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="D2" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -46623,16 +46621,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>111</v>
@@ -46640,67 +46638,67 @@
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="D5" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="D6" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>24</v>
@@ -46708,67 +46706,67 @@
     </row>
     <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="D8" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>430</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="D11" s="0" t="s">
         <v>431</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>432</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>24</v>
@@ -46776,50 +46774,50 @@
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>435</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="62" t="s">
         <v>438</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>439</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="61" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="61" t="s">
         <v>441</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>431</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>442</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>24</v>
@@ -46827,13 +46825,13 @@
     </row>
     <row r="15" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>24</v>
@@ -46841,30 +46839,30 @@
     </row>
     <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>446</v>
-      </c>
       <c r="F16" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>24</v>
@@ -46872,61 +46870,61 @@
     </row>
     <row r="18" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>450</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>453</v>
-      </c>
       <c r="F19" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21" s="0" t="s">
@@ -46935,31 +46933,31 @@
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C22" s="63" t="s">
         <v>456</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>457</v>
       </c>
       <c r="D22" s="4"/>
       <c r="F22" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="61" t="s">
         <v>458</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="D23" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>24</v>
@@ -46967,16 +46965,16 @@
     </row>
     <row r="24" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="B24" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>459</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>24</v>
@@ -46984,45 +46982,45 @@
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" s="63" t="s">
         <v>463</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>464</v>
       </c>
       <c r="D25" s="4"/>
       <c r="F25" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>467</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>469</v>
-      </c>
       <c r="C27" s="61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D27" s="4"/>
       <c r="F27" s="0" t="s">
@@ -47031,318 +47029,318 @@
     </row>
     <row r="28" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C28" s="61" t="s">
         <v>470</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="D28" s="62" t="s">
         <v>471</v>
       </c>
-      <c r="D28" s="62" t="s">
-        <v>472</v>
-      </c>
       <c r="F28" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>475</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="30" s="6" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D30" s="64"/>
       <c r="F30" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>422</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="F32" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D34" s="4"/>
       <c r="F34" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D35" s="4"/>
       <c r="F35" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D36" s="4"/>
       <c r="F36" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>343</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>490</v>
-      </c>
       <c r="F37" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>493</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D39" s="4"/>
       <c r="F39" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>497</v>
-      </c>
       <c r="F40" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>500</v>
-      </c>
       <c r="F41" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>503</v>
-      </c>
       <c r="F42" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>506</v>
-      </c>
       <c r="F43" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>508</v>
-      </c>
       <c r="F44" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>510</v>
-      </c>
       <c r="F45" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/KCUS/Data/KEngine_KC_US.xlsx
+++ b/Projects/KCUS/Data/KEngine_KC_US.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Simple KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,6 +65,10 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -76,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="510">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -90,7 +94,7 @@
     <t xml:space="preserve">Store_Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Scene_Type </t>
+    <t xml:space="preserve">Scene_Type</t>
   </si>
   <si>
     <t xml:space="preserve">KPI_Type</t>
@@ -144,7 +148,7 @@
     <t xml:space="preserve">KC Score</t>
   </si>
   <si>
-    <t xml:space="preserve">POISE anchor </t>
+    <t xml:space="preserve">POISE anchor</t>
   </si>
   <si>
     <t xml:space="preserve">Adult Incontinence</t>
@@ -165,7 +169,7 @@
     <t xml:space="preserve">beginning/end</t>
   </si>
   <si>
-    <t xml:space="preserve">DEPEND for Men anchor </t>
+    <t xml:space="preserve">DEPEND for Men anchor</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -219,13 +223,13 @@
     <t xml:space="preserve">SCOTT 1000</t>
   </si>
   <si>
-    <t xml:space="preserve">Cottonelle anchor </t>
+    <t xml:space="preserve">Cottonelle anchor</t>
   </si>
   <si>
     <t xml:space="preserve">COTTONELLE</t>
   </si>
   <si>
-    <t xml:space="preserve">FCC anchor </t>
+    <t xml:space="preserve">FCC anchor</t>
   </si>
   <si>
     <t xml:space="preserve">sub_category</t>
@@ -234,7 +238,7 @@
     <t xml:space="preserve">Family FCC</t>
   </si>
   <si>
-    <t xml:space="preserve">Huggies anchor </t>
+    <t xml:space="preserve">Huggies anchor</t>
   </si>
   <si>
     <t xml:space="preserve">Diapers</t>
@@ -243,7 +247,7 @@
     <t xml:space="preserve">diapers is a category bot is being captured in one scene with diapers?</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Snugglers anchor </t>
+    <t xml:space="preserve">Little Snugglers anchor</t>
   </si>
   <si>
     <t xml:space="preserve">Mass, Grocery, Drug</t>
@@ -267,7 +271,7 @@
     <t xml:space="preserve">OR: start with category&gt;&gt;brand&gt;&gt;sub brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Kleenex anchor </t>
+    <t xml:space="preserve">Kleenex anchor</t>
   </si>
   <si>
     <t xml:space="preserve">Facial Tissue</t>
@@ -303,13 +307,13 @@
     <t xml:space="preserve">1, 2, 3</t>
   </si>
   <si>
-    <t xml:space="preserve">POISE Thin Shape eye level </t>
+    <t xml:space="preserve">POISE Thin Shape eye level</t>
   </si>
   <si>
     <t xml:space="preserve">POISE THIN SHAPE</t>
   </si>
   <si>
-    <t xml:space="preserve">DEPEND Mainline packs eye level </t>
+    <t xml:space="preserve">DEPEND Mainline packs eye level</t>
   </si>
   <si>
     <t xml:space="preserve">Sub brand</t>
@@ -418,7 +422,7 @@
     <t xml:space="preserve">Survey Question</t>
   </si>
   <si>
-    <t xml:space="preserve">Diapers Private Label between Huggies and Pampers/Luvs </t>
+    <t xml:space="preserve">Diapers Private Label between Huggies and Pampers/Luvs</t>
   </si>
   <si>
     <t xml:space="preserve">Flow between</t>
@@ -460,22 +464,19 @@
     <t xml:space="preserve">additional_attribute_8</t>
   </si>
   <si>
-    <t xml:space="preserve">Scene_Type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tested Product Group</t>
   </si>
   <si>
     <t xml:space="preserve">Entity 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Tested Product Group 2 </t>
+    <t xml:space="preserve">Tested Product Group 2</t>
   </si>
   <si>
     <t xml:space="preserve">Entity 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Tested Product Group 3 </t>
+    <t xml:space="preserve">Tested Product Group 3</t>
   </si>
   <si>
     <t xml:space="preserve">Ignore Empty</t>
@@ -1048,7 +1049,7 @@
     <t xml:space="preserve">Above Allowed?</t>
   </si>
   <si>
-    <t xml:space="preserve">Above distance (shelves) </t>
+    <t xml:space="preserve">Above distance (shelves)</t>
   </si>
   <si>
     <t xml:space="preserve">Bellow Allowed?</t>
@@ -1072,7 +1073,7 @@
     <t xml:space="preserve">Strict</t>
   </si>
   <si>
-    <t xml:space="preserve">Huggies Wipes in the same aisle as Huggies Diapers </t>
+    <t xml:space="preserve">Huggies Wipes in the same aisle as Huggies Diapers</t>
   </si>
   <si>
     <t xml:space="preserve">Assortment</t>
@@ -1129,7 +1130,7 @@
     <t xml:space="preserve">BOUNTY MAINLINE</t>
   </si>
   <si>
-    <t xml:space="preserve">Scott next to value brands </t>
+    <t xml:space="preserve">Scott next to value brands</t>
   </si>
   <si>
     <t xml:space="preserve">SCOTT</t>
@@ -2211,36 +2212,36 @@
   </sheetPr>
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0161943319838"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.4777327935223"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.1497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2024291497976"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="26.9311740890688"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="26.3238866396761"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.6437246963563"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.2550607287449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="130.012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="130.619433198381"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="57.9068825910931"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.59109311740891"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2145748987854"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.5425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6518218623482"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4412955465587"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.4008097165992"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="28.7732793522267"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.1902834008097"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.8056680161943"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="143.473684210526"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="144.089068825911"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="63.7773279352227"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.20647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>21</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>21</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -3480,26 +3481,26 @@
   </sheetPr>
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0161943319838"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="88.6315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.9392712550607"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.2186234817814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.6437246963563"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="78.2267206477733"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="94.0202429149798"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.6801619433198"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2145748987854"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3036437246964"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.9878542510122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.1902834008097"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="86.3076923076923"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.336032388664"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="103.813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,7 +3520,7 @@
         <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -3528,28 +3529,28 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -3563,7 +3564,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="24"/>
@@ -3571,7 +3572,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>38</v>
@@ -3583,7 +3584,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -3591,16 +3592,16 @@
         <v>117</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -3619,7 +3620,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>38</v>
@@ -3631,7 +3632,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -3639,16 +3640,16 @@
         <v>117</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,7 +3660,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -3667,7 +3668,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>38</v>
@@ -3679,7 +3680,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -3687,16 +3688,16 @@
         <v>117</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -3715,7 +3716,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>38</v>
@@ -3735,16 +3736,16 @@
         <v>117</v>
       </c>
       <c r="O5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3755,7 +3756,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -3763,7 +3764,7 @@
         <v>36</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>38</v>
@@ -3775,7 +3776,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -3783,16 +3784,16 @@
         <v>117</v>
       </c>
       <c r="O6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,7 +3804,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -3811,7 +3812,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>38</v>
@@ -3823,7 +3824,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -3831,16 +3832,16 @@
         <v>117</v>
       </c>
       <c r="O7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,7 +3852,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -3859,7 +3860,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>38</v>
@@ -3871,7 +3872,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -3879,16 +3880,16 @@
         <v>117</v>
       </c>
       <c r="O8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3899,7 +3900,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -3907,7 +3908,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>38</v>
@@ -3919,7 +3920,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -3927,16 +3928,16 @@
         <v>117</v>
       </c>
       <c r="O9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,7 +3948,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -3955,7 +3956,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>38</v>
@@ -3967,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -3975,16 +3976,16 @@
         <v>117</v>
       </c>
       <c r="O10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,7 +3996,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -4003,7 +4004,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>38</v>
@@ -4015,7 +4016,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -4023,16 +4024,16 @@
         <v>117</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,7 +4044,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -4051,7 +4052,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>38</v>
@@ -4063,7 +4064,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -4071,16 +4072,16 @@
         <v>117</v>
       </c>
       <c r="O12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,17 +4092,17 @@
         <v>10</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>38</v>
@@ -4113,7 +4114,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -4121,16 +4122,16 @@
         <v>117</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4141,17 +4142,17 @@
         <v>10</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>38</v>
@@ -4163,7 +4164,7 @@
         <v>25</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -4171,16 +4172,16 @@
         <v>117</v>
       </c>
       <c r="O14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,17 +4192,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>38</v>
@@ -4213,7 +4214,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -4221,16 +4222,16 @@
         <v>117</v>
       </c>
       <c r="O15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,17 +4242,17 @@
         <v>10</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>38</v>
@@ -4263,7 +4264,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -4271,16 +4272,16 @@
         <v>117</v>
       </c>
       <c r="O16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4291,17 +4292,17 @@
         <v>10</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>38</v>
@@ -4313,7 +4314,7 @@
         <v>25</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -4321,16 +4322,16 @@
         <v>117</v>
       </c>
       <c r="O17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4341,17 +4342,17 @@
         <v>10</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>38</v>
@@ -4363,7 +4364,7 @@
         <v>25</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -4371,16 +4372,16 @@
         <v>117</v>
       </c>
       <c r="O18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,17 +4392,17 @@
         <v>10</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>38</v>
@@ -4413,7 +4414,7 @@
         <v>25</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -4421,16 +4422,16 @@
         <v>117</v>
       </c>
       <c r="O19" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,17 +4442,17 @@
         <v>10</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>38</v>
@@ -4463,7 +4464,7 @@
         <v>25</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -4471,16 +4472,16 @@
         <v>117</v>
       </c>
       <c r="O20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,17 +4492,17 @@
         <v>10</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>38</v>
@@ -4513,7 +4514,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -4521,16 +4522,16 @@
         <v>117</v>
       </c>
       <c r="O21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4541,7 +4542,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="21" t="s">
@@ -4551,7 +4552,7 @@
         <v>36</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>38</v>
@@ -4563,7 +4564,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -4571,16 +4572,16 @@
         <v>117</v>
       </c>
       <c r="O22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,17 +4592,17 @@
         <v>10</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>38</v>
@@ -4613,7 +4614,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -4621,16 +4622,16 @@
         <v>117</v>
       </c>
       <c r="O23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,17 +4642,17 @@
         <v>10</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>38</v>
@@ -4663,7 +4664,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -4671,16 +4672,16 @@
         <v>117</v>
       </c>
       <c r="O24" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="Q24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4691,7 +4692,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="27"/>
@@ -4699,7 +4700,7 @@
         <v>43</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>50</v>
@@ -4723,7 +4724,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="33"/>
@@ -4731,7 +4732,7 @@
         <v>36</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>38</v>
@@ -4743,7 +4744,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -4751,13 +4752,13 @@
         <v>117</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,7 +4769,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="33"/>
@@ -4776,7 +4777,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>38</v>
@@ -4788,7 +4789,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -4796,13 +4797,13 @@
         <v>117</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,7 +4814,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="33"/>
@@ -4821,7 +4822,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>38</v>
@@ -4833,7 +4834,7 @@
         <v>25</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -4841,13 +4842,13 @@
         <v>117</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4858,7 +4859,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="33"/>
@@ -4866,7 +4867,7 @@
         <v>36</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>38</v>
@@ -4878,7 +4879,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -4886,13 +4887,13 @@
         <v>117</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,7 +4904,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="33"/>
@@ -4911,7 +4912,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>38</v>
@@ -4931,13 +4932,13 @@
         <v>117</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4948,7 +4949,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="33"/>
@@ -4956,7 +4957,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>38</v>
@@ -4968,7 +4969,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -4976,13 +4977,13 @@
         <v>117</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,7 +4994,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="33"/>
@@ -5001,7 +5002,7 @@
         <v>36</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>38</v>
@@ -5013,7 +5014,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -5021,13 +5022,13 @@
         <v>117</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5038,17 +5039,17 @@
         <v>20</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>38</v>
@@ -5060,7 +5061,7 @@
         <v>25</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -5068,13 +5069,13 @@
         <v>117</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,17 +5086,17 @@
         <v>20</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>38</v>
@@ -5107,7 +5108,7 @@
         <v>25</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -5115,13 +5116,13 @@
         <v>117</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5132,17 +5133,17 @@
         <v>20</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>38</v>
@@ -5154,7 +5155,7 @@
         <v>25</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -5162,13 +5163,13 @@
         <v>117</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,17 +5180,17 @@
         <v>20</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>38</v>
@@ -5201,7 +5202,7 @@
         <v>25</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -5209,13 +5210,13 @@
         <v>117</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5226,17 +5227,17 @@
         <v>20</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>38</v>
@@ -5248,7 +5249,7 @@
         <v>25</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -5256,13 +5257,13 @@
         <v>117</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,17 +5274,17 @@
         <v>20</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>38</v>
@@ -5295,7 +5296,7 @@
         <v>25</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -5303,13 +5304,13 @@
         <v>117</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5320,17 +5321,17 @@
         <v>20</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>38</v>
@@ -5342,7 +5343,7 @@
         <v>25</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -5350,13 +5351,13 @@
         <v>117</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,17 +5368,17 @@
         <v>20</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>38</v>
@@ -5389,7 +5390,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5397,13 +5398,13 @@
         <v>117</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,7 +5415,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="21" t="s">
@@ -5424,7 +5425,7 @@
         <v>36</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>38</v>
@@ -5436,7 +5437,7 @@
         <v>25</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -5444,13 +5445,13 @@
         <v>117</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5461,17 +5462,17 @@
         <v>20</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>38</v>
@@ -5483,7 +5484,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5491,13 +5492,13 @@
         <v>117</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,17 +5509,17 @@
         <v>20</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>38</v>
@@ -5530,7 +5531,7 @@
         <v>25</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -5538,13 +5539,13 @@
         <v>117</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5555,17 +5556,17 @@
         <v>20</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>38</v>
@@ -5577,7 +5578,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
@@ -5585,14 +5586,14 @@
         <v>117</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="14" t="s">
         <v>27</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,14 +5604,14 @@
         <v>29</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>25</v>
@@ -5619,10 +5620,10 @@
         <v>65</v>
       </c>
       <c r="J45" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>117</v>
@@ -5640,14 +5641,14 @@
         <v>29</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>25</v>
@@ -5656,10 +5657,10 @@
         <v>65</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>117</v>
@@ -5677,7 +5678,7 @@
         <v>29</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="33"/>
@@ -5685,7 +5686,7 @@
         <v>64</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>25</v>
@@ -5694,10 +5695,10 @@
         <v>65</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>117</v>
@@ -5715,7 +5716,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="33"/>
@@ -5723,7 +5724,7 @@
         <v>64</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>25</v>
@@ -5732,10 +5733,10 @@
         <v>65</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>117</v>
@@ -5753,7 +5754,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="33"/>
@@ -5761,7 +5762,7 @@
         <v>64</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>25</v>
@@ -5770,10 +5771,10 @@
         <v>65</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>117</v>
@@ -5791,7 +5792,7 @@
         <v>29</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="33"/>
@@ -5799,7 +5800,7 @@
         <v>64</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>25</v>
@@ -5808,10 +5809,10 @@
         <v>65</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>117</v>
@@ -5829,7 +5830,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="33"/>
@@ -5837,13 +5838,13 @@
         <v>88</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>117</v>
@@ -5862,7 +5863,7 @@
         <v>34</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="33"/>
@@ -5870,19 +5871,19 @@
         <v>88</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>117</v>
@@ -5892,7 +5893,7 @@
         <v>27</v>
       </c>
       <c r="R52" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,7 +5904,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="33"/>
@@ -5911,19 +5912,19 @@
         <v>88</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N53" s="5" t="s">
         <v>117</v>
@@ -5942,7 +5943,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="33"/>
@@ -5950,19 +5951,19 @@
         <v>88</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>117</v>
@@ -5981,7 +5982,7 @@
         <v>39</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="33"/>
@@ -5989,19 +5990,19 @@
         <v>36</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -6009,13 +6010,13 @@
         <v>117</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6026,7 +6027,7 @@
         <v>39</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="33"/>
@@ -6034,19 +6035,19 @@
         <v>36</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -6054,13 +6055,13 @@
         <v>117</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,7 +6072,7 @@
         <v>39</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="33"/>
@@ -6079,19 +6080,19 @@
         <v>36</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -6099,13 +6100,13 @@
         <v>117</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6116,7 +6117,7 @@
         <v>39</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="33"/>
@@ -6124,19 +6125,19 @@
         <v>36</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -6144,13 +6145,13 @@
         <v>117</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,7 +6162,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="33"/>
@@ -6169,19 +6170,19 @@
         <v>36</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -6189,13 +6190,13 @@
         <v>117</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6206,7 +6207,7 @@
         <v>39</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="33"/>
@@ -6214,19 +6215,19 @@
         <v>36</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -6234,13 +6235,13 @@
         <v>117</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6251,7 +6252,7 @@
         <v>39</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="33"/>
@@ -6259,19 +6260,19 @@
         <v>36</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -6279,13 +6280,13 @@
         <v>117</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6296,29 +6297,29 @@
         <v>39</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -6326,13 +6327,13 @@
         <v>117</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q62" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,29 +6344,29 @@
         <v>39</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -6373,13 +6374,13 @@
         <v>117</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q63" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R63" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,29 +6391,29 @@
         <v>39</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -6420,13 +6421,13 @@
         <v>117</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q64" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R64" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6437,29 +6438,29 @@
         <v>39</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -6467,13 +6468,13 @@
         <v>117</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q65" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R65" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6484,29 +6485,29 @@
         <v>39</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -6514,13 +6515,13 @@
         <v>117</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q66" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R66" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6531,29 +6532,29 @@
         <v>39</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -6561,13 +6562,13 @@
         <v>117</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R67" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6578,29 +6579,29 @@
         <v>39</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -6608,13 +6609,13 @@
         <v>117</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q68" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R68" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6625,7 +6626,7 @@
         <v>39</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="21" t="s">
@@ -6635,19 +6636,19 @@
         <v>36</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -6655,13 +6656,13 @@
         <v>117</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q69" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,29 +6673,29 @@
         <v>39</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -6702,13 +6703,13 @@
         <v>117</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q70" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,29 +6720,29 @@
         <v>39</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D71" s="32"/>
       <c r="E71" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J71" s="32" t="s">
         <v>25</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L71" s="32"/>
       <c r="M71" s="32"/>
@@ -6749,14 +6750,14 @@
         <v>117</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="14" t="s">
         <v>27</v>
       </c>
       <c r="R71" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,32 +6768,32 @@
         <v>40</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D72" s="4"/>
       <c r="F72" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L72" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M72" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>117</v>
@@ -6802,7 +6803,7 @@
         <v>27</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,32 +6814,32 @@
         <v>40</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D73" s="4"/>
       <c r="F73" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L73" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M73" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>117</v>
@@ -6848,7 +6849,7 @@
         <v>27</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,7 +6860,7 @@
         <v>40</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="33"/>
@@ -6867,25 +6868,25 @@
         <v>36</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L74" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M74" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>117</v>
@@ -6895,7 +6896,7 @@
         <v>27</v>
       </c>
       <c r="R74" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,7 +6907,7 @@
         <v>40</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="33"/>
@@ -6914,25 +6915,25 @@
         <v>36</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L75" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M75" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>117</v>
@@ -6942,7 +6943,7 @@
         <v>27</v>
       </c>
       <c r="R75" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,7 +6954,7 @@
         <v>40</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="33"/>
@@ -6961,25 +6962,25 @@
         <v>36</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L76" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M76" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N76" s="5" t="s">
         <v>117</v>
@@ -6989,7 +6990,7 @@
         <v>27</v>
       </c>
       <c r="R76" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7000,35 +7001,35 @@
         <v>40</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L77" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M77" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N77" s="5" t="s">
         <v>117</v>
@@ -7038,7 +7039,7 @@
         <v>27</v>
       </c>
       <c r="R77" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7049,35 +7050,35 @@
         <v>40</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L78" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M78" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N78" s="5" t="s">
         <v>117</v>
@@ -7087,7 +7088,7 @@
         <v>27</v>
       </c>
       <c r="R78" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7098,35 +7099,35 @@
         <v>40</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L79" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N79" s="5" t="s">
         <v>117</v>
@@ -7136,7 +7137,7 @@
         <v>27</v>
       </c>
       <c r="R79" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,35 +7148,35 @@
         <v>40</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L80" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M80" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N80" s="5" t="s">
         <v>117</v>
@@ -7185,7 +7186,7 @@
         <v>27</v>
       </c>
       <c r="R80" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7196,35 +7197,35 @@
         <v>40</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L81" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N81" s="5" t="s">
         <v>117</v>
@@ -7234,7 +7235,7 @@
         <v>27</v>
       </c>
       <c r="R81" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7245,35 +7246,35 @@
         <v>40</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L82" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>117</v>
@@ -7283,7 +7284,7 @@
         <v>27</v>
       </c>
       <c r="R82" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7294,35 +7295,35 @@
         <v>40</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L83" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M83" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>117</v>
@@ -7332,7 +7333,7 @@
         <v>27</v>
       </c>
       <c r="R83" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,7 +7344,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="21" t="s">
@@ -7353,25 +7354,25 @@
         <v>36</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L84" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N84" s="5" t="s">
         <v>117</v>
@@ -7381,7 +7382,7 @@
         <v>27</v>
       </c>
       <c r="R84" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7392,35 +7393,35 @@
         <v>40</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L85" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M85" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>117</v>
@@ -7430,7 +7431,7 @@
         <v>27</v>
       </c>
       <c r="R85" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7441,32 +7442,32 @@
         <v>40</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D86" s="4"/>
       <c r="F86" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>117</v>
@@ -7476,7 +7477,7 @@
         <v>27</v>
       </c>
       <c r="R86" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,32 +7488,32 @@
         <v>40</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D87" s="4"/>
       <c r="F87" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N87" s="5" t="s">
         <v>117</v>
@@ -7522,7 +7523,7 @@
         <v>27</v>
       </c>
       <c r="R87" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,32 +7534,32 @@
         <v>40</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D88" s="4"/>
       <c r="F88" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N88" s="5" t="s">
         <v>117</v>
@@ -7568,7 +7569,7 @@
         <v>27</v>
       </c>
       <c r="R88" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,7 +7580,7 @@
         <v>40</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="33"/>
@@ -7587,25 +7588,25 @@
         <v>36</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>117</v>
@@ -7615,7 +7616,7 @@
         <v>27</v>
       </c>
       <c r="R89" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7626,7 +7627,7 @@
         <v>40</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="33"/>
@@ -7634,25 +7635,25 @@
         <v>36</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>117</v>
@@ -7662,7 +7663,7 @@
         <v>27</v>
       </c>
       <c r="R90" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,7 +7674,7 @@
         <v>40</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="33"/>
@@ -7681,25 +7682,25 @@
         <v>36</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>117</v>
@@ -7709,7 +7710,7 @@
         <v>27</v>
       </c>
       <c r="R91" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7720,7 +7721,7 @@
         <v>40</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="33"/>
@@ -7728,25 +7729,25 @@
         <v>36</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N92" s="5" t="s">
         <v>117</v>
@@ -7756,7 +7757,7 @@
         <v>27</v>
       </c>
       <c r="R92" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7767,35 +7768,35 @@
         <v>40</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>117</v>
@@ -7805,7 +7806,7 @@
         <v>27</v>
       </c>
       <c r="R93" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7816,35 +7817,35 @@
         <v>40</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>117</v>
@@ -7854,7 +7855,7 @@
         <v>27</v>
       </c>
       <c r="R94" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7865,35 +7866,35 @@
         <v>40</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>117</v>
@@ -7903,7 +7904,7 @@
         <v>27</v>
       </c>
       <c r="R95" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7914,35 +7915,35 @@
         <v>40</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>117</v>
@@ -7952,7 +7953,7 @@
         <v>27</v>
       </c>
       <c r="R96" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,35 +7964,35 @@
         <v>40</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N97" s="5" t="s">
         <v>117</v>
@@ -8001,7 +8002,7 @@
         <v>27</v>
       </c>
       <c r="R97" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,35 +8013,35 @@
         <v>40</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>117</v>
@@ -8050,7 +8051,7 @@
         <v>27</v>
       </c>
       <c r="R98" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,35 +8062,35 @@
         <v>40</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N99" s="5" t="s">
         <v>117</v>
@@ -8099,7 +8100,7 @@
         <v>27</v>
       </c>
       <c r="R99" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8110,7 +8111,7 @@
         <v>40</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="21" t="s">
@@ -8120,25 +8121,25 @@
         <v>36</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>117</v>
@@ -8148,7 +8149,7 @@
         <v>27</v>
       </c>
       <c r="R100" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8159,35 +8160,35 @@
         <v>40</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N101" s="5" t="s">
         <v>117</v>
@@ -8197,7 +8198,7 @@
         <v>27</v>
       </c>
       <c r="R101" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8208,32 +8209,32 @@
         <v>40</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D102" s="4"/>
       <c r="F102" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>117</v>
@@ -8243,7 +8244,7 @@
         <v>27</v>
       </c>
       <c r="R102" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,32 +8255,32 @@
         <v>40</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D103" s="4"/>
       <c r="F103" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N103" s="5" t="s">
         <v>117</v>
@@ -8289,7 +8290,7 @@
         <v>27</v>
       </c>
       <c r="R103" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8300,32 +8301,32 @@
         <v>40</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D104" s="4"/>
       <c r="F104" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>117</v>
@@ -8335,7 +8336,7 @@
         <v>27</v>
       </c>
       <c r="R104" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8346,35 +8347,35 @@
         <v>40</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>117</v>
@@ -8384,7 +8385,7 @@
         <v>27</v>
       </c>
       <c r="R105" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8395,35 +8396,35 @@
         <v>40</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>117</v>
@@ -8433,7 +8434,7 @@
         <v>27</v>
       </c>
       <c r="R106" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8444,35 +8445,35 @@
         <v>40</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N107" s="5" t="s">
         <v>117</v>
@@ -8482,7 +8483,7 @@
         <v>27</v>
       </c>
       <c r="R107" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8493,35 +8494,35 @@
         <v>40</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N108" s="5" t="s">
         <v>117</v>
@@ -8531,7 +8532,7 @@
         <v>27</v>
       </c>
       <c r="R108" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8542,35 +8543,35 @@
         <v>40</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>117</v>
@@ -8580,7 +8581,7 @@
         <v>27</v>
       </c>
       <c r="R109" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8591,7 +8592,7 @@
         <v>40</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="21" t="s">
@@ -8601,25 +8602,25 @@
         <v>36</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>117</v>
@@ -8629,7 +8630,7 @@
         <v>27</v>
       </c>
       <c r="R110" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8640,35 +8641,35 @@
         <v>40</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N111" s="5" t="s">
         <v>117</v>
@@ -8678,7 +8679,7 @@
         <v>27</v>
       </c>
       <c r="R111" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8689,35 +8690,35 @@
         <v>40</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="32"/>
       <c r="E112" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I112" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J112" s="32" t="s">
         <v>25</v>
       </c>
       <c r="K112" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L112" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M112" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N112" s="12" t="s">
         <v>117</v>
@@ -8728,7 +8729,7 @@
         <v>27</v>
       </c>
       <c r="R112" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8739,20 +8740,20 @@
         <v>42</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D113" s="4"/>
       <c r="F113" s="0" t="s">
         <v>36</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -8775,25 +8776,25 @@
         <v>38</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I114" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>50</v>
       </c>
       <c r="K114" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>117</v>
@@ -8824,32 +8825,32 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.0161943319838"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.1983805668016"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="39.7854251012146"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="58.2712550607288"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="110.303643724696"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.2712550607288"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="224.157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.36437246963563"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.59109311740891"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="38.4412955465587"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="25.2145748987854"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="84.7165991902834"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3603238866397"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.2550607287449"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="64.0283400809717"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="121.566801619433"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="64.0283400809717"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="247.417004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9757085020243"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.85425101214575"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.6113360323887"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.20647773279352"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="42.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8866,61 +8867,61 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>20</v>
@@ -8936,7 +8937,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>107</v>
@@ -8945,7 +8946,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>38</v>
@@ -8972,28 +8973,28 @@
         <v>40</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="S2" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="U2" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>27</v>
@@ -9007,13 +9008,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>25</v>
@@ -9025,26 +9026,26 @@
         <v>25</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="20"/>
       <c r="P3" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q3" s="37"/>
       <c r="R3" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="U3" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V3" s="5" t="n">
         <v>1</v>
@@ -9054,7 +9055,7 @@
         <v>27</v>
       </c>
       <c r="AC3" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9065,19 +9066,19 @@
         <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>38</v>
@@ -9088,35 +9089,35 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="Q4" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="S4" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>334</v>
-      </c>
       <c r="U4" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="W4" s="37"/>
       <c r="X4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="AC4" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9127,19 +9128,19 @@
         <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>38</v>
@@ -9151,21 +9152,21 @@
       <c r="N5" s="7"/>
       <c r="O5" s="20"/>
       <c r="P5" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="37"/>
       <c r="R5" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="37"/>
       <c r="V5" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W5" s="37" t="s">
         <v>117</v>
@@ -9183,49 +9184,49 @@
         <v>41</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>38</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q6" s="40"/>
       <c r="R6" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T6" s="12" t="n">
         <v>0</v>
@@ -9239,7 +9240,7 @@
         <v>27</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -9254,44 +9255,44 @@
         <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="20"/>
       <c r="P7" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="37"/>
       <c r="R7" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="U7" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V7" s="5" t="n">
         <v>1</v>
@@ -9310,20 +9311,20 @@
         <v>44</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
         <v>93</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -9331,7 +9332,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
@@ -9356,13 +9357,13 @@
         <v>27</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9384,25 +9385,25 @@
   </sheetPr>
   <dimension ref="1:90"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="117.279352226721"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="38.6842105263158"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="51.5384615384615"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="25.336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="43" width="8.93522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="129.522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="42.3562753036437"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="56.6801619433198"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="27.9068825910931"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="43" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="45" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>355</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>356</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -9410,13 +9411,13 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="46"/>
       <c r="B2" s="47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
@@ -10441,13 +10442,13 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>360</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>361</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="0"/>
@@ -11473,16 +11474,16 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>363</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -12507,13 +12508,13 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>360</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>361</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>51</v>
@@ -13541,13 +13542,13 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>365</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>366</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="0"/>
@@ -14573,13 +14574,13 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>367</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>368</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="0"/>
@@ -15605,13 +15606,13 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>370</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>371</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="0"/>
@@ -16637,16 +16638,16 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>372</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>373</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -17671,16 +17672,16 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>371</v>
-      </c>
       <c r="D10" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -18705,13 +18706,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>375</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>376</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="0"/>
@@ -19737,10 +19738,10 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>377</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>378</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="53"/>
@@ -20767,10 +20768,10 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>53</v>
@@ -21799,13 +21800,13 @@
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="0"/>
@@ -22831,10 +22832,10 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>39</v>
@@ -24890,7 +24891,7 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="54"/>
       <c r="B17" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>37</v>
@@ -25920,10 +25921,10 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="54"/>
       <c r="B18" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>383</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>384</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -26951,7 +26952,7 @@
       <c r="A19" s="54"/>
       <c r="B19" s="56"/>
       <c r="C19" s="55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
@@ -27978,7 +27979,7 @@
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
       <c r="B20" s="57" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>53</v>
@@ -29009,7 +29010,7 @@
       <c r="A21" s="0"/>
       <c r="B21" s="57"/>
       <c r="C21" s="55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -30037,7 +30038,7 @@
       <c r="A22" s="0"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
@@ -31064,10 +31065,10 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
       <c r="B23" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
@@ -33127,7 +33128,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
@@ -34154,10 +34155,10 @@
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>391</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>392</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
@@ -38261,7 +38262,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -40317,7 +40318,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -41345,7 +41346,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -42373,7 +42374,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -44429,7 +44430,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -45457,7 +45458,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -46570,19 +46571,19 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3238866396761"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="122.2995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="79.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="134.906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.4696356275304"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.4655870445344"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46590,30 +46591,30 @@
         <v>37</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="D1" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>400</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="D2" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -46621,16 +46622,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>111</v>
@@ -46638,67 +46639,67 @@
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="D5" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="D6" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>404</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>24</v>
@@ -46706,67 +46707,67 @@
     </row>
     <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>420</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="D8" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>429</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="D11" s="0" t="s">
         <v>430</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>431</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>24</v>
@@ -46774,50 +46775,50 @@
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>434</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="62" t="s">
         <v>437</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>438</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" s="61" t="s">
         <v>440</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>430</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>441</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>24</v>
@@ -46825,13 +46826,13 @@
     </row>
     <row r="15" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>24</v>
@@ -46839,30 +46840,30 @@
     </row>
     <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>445</v>
-      </c>
       <c r="F16" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>24</v>
@@ -46870,36 +46871,36 @@
     </row>
     <row r="18" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>449</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>452</v>
-      </c>
       <c r="F19" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46907,13 +46908,13 @@
         <v>53</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46921,10 +46922,10 @@
         <v>53</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21" s="0" t="s">
@@ -46936,14 +46937,14 @@
         <v>53</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="C22" s="63" t="s">
         <v>455</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>456</v>
       </c>
       <c r="D22" s="4"/>
       <c r="F22" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46951,13 +46952,13 @@
         <v>53</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" s="61" t="s">
         <v>457</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="D23" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>24</v>
@@ -46968,13 +46969,13 @@
         <v>53</v>
       </c>
       <c r="B24" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>457</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>458</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>24</v>
@@ -46985,14 +46986,14 @@
         <v>53</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="63" t="s">
         <v>462</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>463</v>
       </c>
       <c r="D25" s="4"/>
       <c r="F25" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47000,27 +47001,27 @@
         <v>53</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>466</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>468</v>
-      </c>
       <c r="C27" s="61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D27" s="4"/>
       <c r="F27" s="0" t="s">
@@ -47029,318 +47030,318 @@
     </row>
     <row r="28" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" s="61" t="s">
         <v>469</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="D28" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="D28" s="62" t="s">
-        <v>471</v>
-      </c>
       <c r="F28" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>474</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="30" s="6" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D30" s="64"/>
       <c r="F30" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>480</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>421</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>482</v>
-      </c>
       <c r="F32" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D34" s="4"/>
       <c r="F34" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D35" s="4"/>
       <c r="F35" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D36" s="4"/>
       <c r="F36" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>489</v>
-      </c>
       <c r="F37" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D39" s="4"/>
       <c r="F39" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>496</v>
-      </c>
       <c r="F40" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>499</v>
-      </c>
       <c r="F41" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>502</v>
-      </c>
       <c r="F42" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>505</v>
-      </c>
       <c r="F43" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>507</v>
-      </c>
       <c r="F44" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>509</v>
-      </c>
       <c r="F45" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/KCUS/Data/KEngine_KC_US.xlsx
+++ b/Projects/KCUS/Data/KEngine_KC_US.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Simple KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -69,6 +69,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="509">
   <si>
     <t xml:space="preserve">KPI Level 1 Name</t>
   </si>
@@ -441,9 +442,6 @@
   </si>
   <si>
     <t xml:space="preserve">Does Ultra Soft anchor at least one Kleenex block?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facial Tissue </t>
   </si>
   <si>
     <t xml:space="preserve">KLEENEX ULTRASOFT</t>
@@ -2213,32 +2211,32 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="X36" activeCellId="0" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2145748987854"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.5425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.6518218623482"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4412955465587"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.4008097165992"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.1902834008097"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="143.473684210526"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="144.089068825911"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="63.7773279352227"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="11.2631578947368"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.20647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.3562753036437"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.2591093117409"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.1781376518219"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.663967611336"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="147.032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.6113360323887"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="147.761133603239"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="65.251012145749"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="11.5060728744939"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,7 +3419,7 @@
         <v>119</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>114</v>
@@ -3431,19 +3429,19 @@
         <v>45</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R28" s="20"/>
       <c r="S28" s="20"/>
@@ -3459,7 +3457,7 @@
         <v>27</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG28" s="4"/>
     </row>
@@ -3487,20 +3485,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.6801619433198"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2145748987854"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8947368421053"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.9878542510122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.1902834008097"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="86.3076923076923"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.336032388664"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="103.813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9109311740891"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="100.263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3036437246964"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.1781376518219"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="88.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.9514170040486"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="18.6113360323887"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="106.506072874494"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3517,7 +3515,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -3529,28 +3527,28 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -3564,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="24"/>
@@ -3572,7 +3570,7 @@
         <v>36</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>38</v>
@@ -3584,7 +3582,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -3592,16 +3590,16 @@
         <v>117</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -3620,7 +3618,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>38</v>
@@ -3632,7 +3630,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -3640,16 +3638,16 @@
         <v>117</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3660,7 +3658,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -3668,7 +3666,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>38</v>
@@ -3680,7 +3678,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -3688,16 +3686,16 @@
         <v>117</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,7 +3706,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -3716,7 +3714,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>38</v>
@@ -3736,16 +3734,16 @@
         <v>117</v>
       </c>
       <c r="O5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3756,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -3764,7 +3762,7 @@
         <v>36</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>38</v>
@@ -3776,7 +3774,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -3784,16 +3782,16 @@
         <v>117</v>
       </c>
       <c r="O6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3804,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -3812,7 +3810,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>38</v>
@@ -3824,7 +3822,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -3832,16 +3830,16 @@
         <v>117</v>
       </c>
       <c r="O7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,7 +3850,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -3860,7 +3858,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>38</v>
@@ -3872,7 +3870,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -3880,16 +3878,16 @@
         <v>117</v>
       </c>
       <c r="O8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3900,7 +3898,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -3908,7 +3906,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>38</v>
@@ -3920,7 +3918,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -3928,16 +3926,16 @@
         <v>117</v>
       </c>
       <c r="O9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,7 +3946,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -3956,7 +3954,7 @@
         <v>36</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>38</v>
@@ -3968,7 +3966,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -3976,16 +3974,16 @@
         <v>117</v>
       </c>
       <c r="O10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
@@ -4004,7 +4002,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>38</v>
@@ -4016,7 +4014,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -4024,16 +4022,16 @@
         <v>117</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4044,7 +4042,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -4052,7 +4050,7 @@
         <v>36</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>38</v>
@@ -4064,7 +4062,7 @@
         <v>25</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -4072,16 +4070,16 @@
         <v>117</v>
       </c>
       <c r="O12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4092,17 +4090,17 @@
         <v>10</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>38</v>
@@ -4114,7 +4112,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -4122,16 +4120,16 @@
         <v>117</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,17 +4140,17 @@
         <v>10</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>38</v>
@@ -4164,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -4172,16 +4170,16 @@
         <v>117</v>
       </c>
       <c r="O14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,17 +4190,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>38</v>
@@ -4214,7 +4212,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -4222,16 +4220,16 @@
         <v>117</v>
       </c>
       <c r="O15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,17 +4240,17 @@
         <v>10</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>38</v>
@@ -4264,7 +4262,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -4272,16 +4270,16 @@
         <v>117</v>
       </c>
       <c r="O16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,17 +4290,17 @@
         <v>10</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>38</v>
@@ -4314,7 +4312,7 @@
         <v>25</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -4322,16 +4320,16 @@
         <v>117</v>
       </c>
       <c r="O17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,17 +4340,17 @@
         <v>10</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>38</v>
@@ -4364,7 +4362,7 @@
         <v>25</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -4372,16 +4370,16 @@
         <v>117</v>
       </c>
       <c r="O18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,17 +4390,17 @@
         <v>10</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>38</v>
@@ -4414,7 +4412,7 @@
         <v>25</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -4422,16 +4420,16 @@
         <v>117</v>
       </c>
       <c r="O19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,17 +4440,17 @@
         <v>10</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>38</v>
@@ -4464,7 +4462,7 @@
         <v>25</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
@@ -4472,16 +4470,16 @@
         <v>117</v>
       </c>
       <c r="O20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,17 +4490,17 @@
         <v>10</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>38</v>
@@ -4514,7 +4512,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -4522,16 +4520,16 @@
         <v>117</v>
       </c>
       <c r="O21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4540,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="21" t="s">
@@ -4552,7 +4550,7 @@
         <v>36</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>38</v>
@@ -4564,7 +4562,7 @@
         <v>25</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
@@ -4572,16 +4570,16 @@
         <v>117</v>
       </c>
       <c r="O22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,17 +4590,17 @@
         <v>10</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>38</v>
@@ -4614,7 +4612,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -4622,16 +4620,16 @@
         <v>117</v>
       </c>
       <c r="O23" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4642,17 +4640,17 @@
         <v>10</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>38</v>
@@ -4664,7 +4662,7 @@
         <v>25</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
@@ -4672,16 +4670,16 @@
         <v>117</v>
       </c>
       <c r="O24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="Q24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,7 +4690,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="27"/>
@@ -4700,7 +4698,7 @@
         <v>43</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>50</v>
@@ -4724,7 +4722,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="33"/>
@@ -4732,7 +4730,7 @@
         <v>36</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>38</v>
@@ -4744,7 +4742,7 @@
         <v>25</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -4752,13 +4750,13 @@
         <v>117</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,7 +4767,7 @@
         <v>20</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="33"/>
@@ -4777,7 +4775,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>38</v>
@@ -4789,7 +4787,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -4797,13 +4795,13 @@
         <v>117</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,7 +4812,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="33"/>
@@ -4822,7 +4820,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>38</v>
@@ -4834,7 +4832,7 @@
         <v>25</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -4842,13 +4840,13 @@
         <v>117</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4859,7 +4857,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="33"/>
@@ -4867,7 +4865,7 @@
         <v>36</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>38</v>
@@ -4879,7 +4877,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -4887,13 +4885,13 @@
         <v>117</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,7 +4902,7 @@
         <v>20</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="33"/>
@@ -4912,7 +4910,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>38</v>
@@ -4932,13 +4930,13 @@
         <v>117</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,7 +4947,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="33"/>
@@ -4957,7 +4955,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>38</v>
@@ -4969,7 +4967,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -4977,13 +4975,13 @@
         <v>117</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4994,7 +4992,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="33"/>
@@ -5002,7 +5000,7 @@
         <v>36</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>38</v>
@@ -5014,7 +5012,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -5022,13 +5020,13 @@
         <v>117</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,17 +5037,17 @@
         <v>20</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>38</v>
@@ -5061,7 +5059,7 @@
         <v>25</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -5069,13 +5067,13 @@
         <v>117</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5086,17 +5084,17 @@
         <v>20</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>38</v>
@@ -5108,7 +5106,7 @@
         <v>25</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -5116,13 +5114,13 @@
         <v>117</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,17 +5131,17 @@
         <v>20</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>38</v>
@@ -5155,7 +5153,7 @@
         <v>25</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -5163,13 +5161,13 @@
         <v>117</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5180,17 +5178,17 @@
         <v>20</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>38</v>
@@ -5202,7 +5200,7 @@
         <v>25</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -5210,13 +5208,13 @@
         <v>117</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,17 +5225,17 @@
         <v>20</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>38</v>
@@ -5249,7 +5247,7 @@
         <v>25</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -5257,13 +5255,13 @@
         <v>117</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5274,17 +5272,17 @@
         <v>20</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>38</v>
@@ -5296,7 +5294,7 @@
         <v>25</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -5304,13 +5302,13 @@
         <v>117</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,17 +5319,17 @@
         <v>20</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>38</v>
@@ -5343,7 +5341,7 @@
         <v>25</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -5351,13 +5349,13 @@
         <v>117</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,17 +5366,17 @@
         <v>20</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>38</v>
@@ -5390,7 +5388,7 @@
         <v>25</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5398,13 +5396,13 @@
         <v>117</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,7 +5413,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="21" t="s">
@@ -5425,7 +5423,7 @@
         <v>36</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>38</v>
@@ -5437,7 +5435,7 @@
         <v>25</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -5445,13 +5443,13 @@
         <v>117</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,17 +5460,17 @@
         <v>20</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>38</v>
@@ -5484,7 +5482,7 @@
         <v>25</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5492,13 +5490,13 @@
         <v>117</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,17 +5507,17 @@
         <v>20</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>38</v>
@@ -5531,7 +5529,7 @@
         <v>25</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -5539,13 +5537,13 @@
         <v>117</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5556,17 +5554,17 @@
         <v>20</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>38</v>
@@ -5578,7 +5576,7 @@
         <v>25</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
@@ -5586,14 +5584,14 @@
         <v>117</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="14" t="s">
         <v>27</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5604,14 +5602,14 @@
         <v>29</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>25</v>
@@ -5620,10 +5618,10 @@
         <v>65</v>
       </c>
       <c r="J45" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>117</v>
@@ -5641,14 +5639,14 @@
         <v>29</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>25</v>
@@ -5657,10 +5655,10 @@
         <v>65</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>117</v>
@@ -5678,7 +5676,7 @@
         <v>29</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="33"/>
@@ -5686,7 +5684,7 @@
         <v>64</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>25</v>
@@ -5695,10 +5693,10 @@
         <v>65</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>117</v>
@@ -5716,7 +5714,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="33"/>
@@ -5724,7 +5722,7 @@
         <v>64</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>25</v>
@@ -5733,10 +5731,10 @@
         <v>65</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>117</v>
@@ -5754,7 +5752,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="33"/>
@@ -5762,7 +5760,7 @@
         <v>64</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>25</v>
@@ -5771,10 +5769,10 @@
         <v>65</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>117</v>
@@ -5792,7 +5790,7 @@
         <v>29</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="33"/>
@@ -5800,7 +5798,7 @@
         <v>64</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>25</v>
@@ -5809,10 +5807,10 @@
         <v>65</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>117</v>
@@ -5830,7 +5828,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="33"/>
@@ -5838,13 +5836,13 @@
         <v>88</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>117</v>
@@ -5863,7 +5861,7 @@
         <v>34</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="33"/>
@@ -5871,19 +5869,19 @@
         <v>88</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>117</v>
@@ -5893,7 +5891,7 @@
         <v>27</v>
       </c>
       <c r="R52" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +5902,7 @@
         <v>35</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="33"/>
@@ -5912,19 +5910,19 @@
         <v>88</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N53" s="5" t="s">
         <v>117</v>
@@ -5943,7 +5941,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="33"/>
@@ -5951,19 +5949,19 @@
         <v>88</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>117</v>
@@ -5982,7 +5980,7 @@
         <v>39</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="33"/>
@@ -5990,19 +5988,19 @@
         <v>36</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -6010,13 +6008,13 @@
         <v>117</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6027,7 +6025,7 @@
         <v>39</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="33"/>
@@ -6035,19 +6033,19 @@
         <v>36</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -6055,13 +6053,13 @@
         <v>117</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,7 +6070,7 @@
         <v>39</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="33"/>
@@ -6080,19 +6078,19 @@
         <v>36</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -6100,13 +6098,13 @@
         <v>117</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R57" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,7 +6115,7 @@
         <v>39</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="33"/>
@@ -6125,19 +6123,19 @@
         <v>36</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -6145,13 +6143,13 @@
         <v>117</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R58" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6162,7 +6160,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="33"/>
@@ -6170,19 +6168,19 @@
         <v>36</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -6190,13 +6188,13 @@
         <v>117</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R59" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6207,7 +6205,7 @@
         <v>39</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="33"/>
@@ -6215,19 +6213,19 @@
         <v>36</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -6235,13 +6233,13 @@
         <v>117</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R60" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6252,7 +6250,7 @@
         <v>39</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="33"/>
@@ -6260,19 +6258,19 @@
         <v>36</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -6280,13 +6278,13 @@
         <v>117</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R61" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6297,29 +6295,29 @@
         <v>39</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -6327,13 +6325,13 @@
         <v>117</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q62" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R62" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6344,29 +6342,29 @@
         <v>39</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -6374,13 +6372,13 @@
         <v>117</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q63" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R63" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6391,29 +6389,29 @@
         <v>39</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -6421,13 +6419,13 @@
         <v>117</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q64" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R64" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,29 +6436,29 @@
         <v>39</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
@@ -6468,13 +6466,13 @@
         <v>117</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q65" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R65" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6485,29 +6483,29 @@
         <v>39</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
@@ -6515,13 +6513,13 @@
         <v>117</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q66" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R66" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,29 +6530,29 @@
         <v>39</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -6562,13 +6560,13 @@
         <v>117</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R67" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,29 +6577,29 @@
         <v>39</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -6609,13 +6607,13 @@
         <v>117</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q68" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R68" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6626,7 +6624,7 @@
         <v>39</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="21" t="s">
@@ -6636,19 +6634,19 @@
         <v>36</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -6656,13 +6654,13 @@
         <v>117</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q69" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R69" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6673,29 +6671,29 @@
         <v>39</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -6703,13 +6701,13 @@
         <v>117</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q70" s="7" t="s">
         <v>27</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6720,29 +6718,29 @@
         <v>39</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D71" s="32"/>
       <c r="E71" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J71" s="32" t="s">
         <v>25</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L71" s="32"/>
       <c r="M71" s="32"/>
@@ -6750,14 +6748,14 @@
         <v>117</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="14" t="s">
         <v>27</v>
       </c>
       <c r="R71" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6768,32 +6766,32 @@
         <v>40</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D72" s="4"/>
       <c r="F72" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L72" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M72" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>117</v>
@@ -6803,7 +6801,7 @@
         <v>27</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6814,32 +6812,32 @@
         <v>40</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D73" s="4"/>
       <c r="F73" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L73" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M73" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>117</v>
@@ -6849,7 +6847,7 @@
         <v>27</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,7 +6858,7 @@
         <v>40</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="33"/>
@@ -6868,25 +6866,25 @@
         <v>36</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L74" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M74" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>117</v>
@@ -6896,7 +6894,7 @@
         <v>27</v>
       </c>
       <c r="R74" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,7 +6905,7 @@
         <v>40</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="33"/>
@@ -6915,25 +6913,25 @@
         <v>36</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L75" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M75" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>117</v>
@@ -6943,7 +6941,7 @@
         <v>27</v>
       </c>
       <c r="R75" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6954,7 +6952,7 @@
         <v>40</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="33"/>
@@ -6962,25 +6960,25 @@
         <v>36</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L76" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M76" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N76" s="5" t="s">
         <v>117</v>
@@ -6990,7 +6988,7 @@
         <v>27</v>
       </c>
       <c r="R76" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,35 +6999,35 @@
         <v>40</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L77" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M77" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N77" s="5" t="s">
         <v>117</v>
@@ -7039,7 +7037,7 @@
         <v>27</v>
       </c>
       <c r="R77" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7050,35 +7048,35 @@
         <v>40</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L78" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M78" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N78" s="5" t="s">
         <v>117</v>
@@ -7088,7 +7086,7 @@
         <v>27</v>
       </c>
       <c r="R78" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7099,35 +7097,35 @@
         <v>40</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L79" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N79" s="5" t="s">
         <v>117</v>
@@ -7137,7 +7135,7 @@
         <v>27</v>
       </c>
       <c r="R79" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7148,35 +7146,35 @@
         <v>40</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L80" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M80" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N80" s="5" t="s">
         <v>117</v>
@@ -7186,7 +7184,7 @@
         <v>27</v>
       </c>
       <c r="R80" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7197,35 +7195,35 @@
         <v>40</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L81" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N81" s="5" t="s">
         <v>117</v>
@@ -7235,7 +7233,7 @@
         <v>27</v>
       </c>
       <c r="R81" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,35 +7244,35 @@
         <v>40</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L82" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>117</v>
@@ -7284,7 +7282,7 @@
         <v>27</v>
       </c>
       <c r="R82" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7295,35 +7293,35 @@
         <v>40</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L83" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M83" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>117</v>
@@ -7333,7 +7331,7 @@
         <v>27</v>
       </c>
       <c r="R83" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,7 +7342,7 @@
         <v>40</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="21" t="s">
@@ -7354,25 +7352,25 @@
         <v>36</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L84" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N84" s="5" t="s">
         <v>117</v>
@@ -7382,7 +7380,7 @@
         <v>27</v>
       </c>
       <c r="R84" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7393,35 +7391,35 @@
         <v>40</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L85" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M85" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>117</v>
@@ -7431,7 +7429,7 @@
         <v>27</v>
       </c>
       <c r="R85" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,32 +7440,32 @@
         <v>40</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D86" s="4"/>
       <c r="F86" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>117</v>
@@ -7477,7 +7475,7 @@
         <v>27</v>
       </c>
       <c r="R86" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,32 +7486,32 @@
         <v>40</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D87" s="4"/>
       <c r="F87" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N87" s="5" t="s">
         <v>117</v>
@@ -7523,7 +7521,7 @@
         <v>27</v>
       </c>
       <c r="R87" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7534,32 +7532,32 @@
         <v>40</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D88" s="4"/>
       <c r="F88" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N88" s="5" t="s">
         <v>117</v>
@@ -7569,7 +7567,7 @@
         <v>27</v>
       </c>
       <c r="R88" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7580,7 +7578,7 @@
         <v>40</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="33"/>
@@ -7588,25 +7586,25 @@
         <v>36</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>117</v>
@@ -7616,7 +7614,7 @@
         <v>27</v>
       </c>
       <c r="R89" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7627,7 +7625,7 @@
         <v>40</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="33"/>
@@ -7635,25 +7633,25 @@
         <v>36</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>117</v>
@@ -7663,7 +7661,7 @@
         <v>27</v>
       </c>
       <c r="R90" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7674,7 +7672,7 @@
         <v>40</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="33"/>
@@ -7682,25 +7680,25 @@
         <v>36</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>117</v>
@@ -7710,7 +7708,7 @@
         <v>27</v>
       </c>
       <c r="R91" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7721,7 +7719,7 @@
         <v>40</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="33"/>
@@ -7729,25 +7727,25 @@
         <v>36</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N92" s="5" t="s">
         <v>117</v>
@@ -7757,7 +7755,7 @@
         <v>27</v>
       </c>
       <c r="R92" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7768,35 +7766,35 @@
         <v>40</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>117</v>
@@ -7806,7 +7804,7 @@
         <v>27</v>
       </c>
       <c r="R93" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,35 +7815,35 @@
         <v>40</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>117</v>
@@ -7855,7 +7853,7 @@
         <v>27</v>
       </c>
       <c r="R94" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7866,35 +7864,35 @@
         <v>40</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>117</v>
@@ -7904,7 +7902,7 @@
         <v>27</v>
       </c>
       <c r="R95" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7915,35 +7913,35 @@
         <v>40</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>117</v>
@@ -7953,7 +7951,7 @@
         <v>27</v>
       </c>
       <c r="R96" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7964,35 +7962,35 @@
         <v>40</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N97" s="5" t="s">
         <v>117</v>
@@ -8002,7 +8000,7 @@
         <v>27</v>
       </c>
       <c r="R97" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8013,35 +8011,35 @@
         <v>40</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>117</v>
@@ -8051,7 +8049,7 @@
         <v>27</v>
       </c>
       <c r="R98" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8062,35 +8060,35 @@
         <v>40</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N99" s="5" t="s">
         <v>117</v>
@@ -8100,7 +8098,7 @@
         <v>27</v>
       </c>
       <c r="R99" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8111,7 +8109,7 @@
         <v>40</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="21" t="s">
@@ -8121,25 +8119,25 @@
         <v>36</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>117</v>
@@ -8149,7 +8147,7 @@
         <v>27</v>
       </c>
       <c r="R100" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,35 +8158,35 @@
         <v>40</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N101" s="5" t="s">
         <v>117</v>
@@ -8198,7 +8196,7 @@
         <v>27</v>
       </c>
       <c r="R101" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8209,32 +8207,32 @@
         <v>40</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D102" s="4"/>
       <c r="F102" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>117</v>
@@ -8244,7 +8242,7 @@
         <v>27</v>
       </c>
       <c r="R102" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8255,32 +8253,32 @@
         <v>40</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D103" s="4"/>
       <c r="F103" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N103" s="5" t="s">
         <v>117</v>
@@ -8290,7 +8288,7 @@
         <v>27</v>
       </c>
       <c r="R103" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,32 +8299,32 @@
         <v>40</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D104" s="4"/>
       <c r="F104" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J104" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>117</v>
@@ -8336,7 +8334,7 @@
         <v>27</v>
       </c>
       <c r="R104" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8347,35 +8345,35 @@
         <v>40</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>117</v>
@@ -8385,7 +8383,7 @@
         <v>27</v>
       </c>
       <c r="R105" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8396,35 +8394,35 @@
         <v>40</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>117</v>
@@ -8434,7 +8432,7 @@
         <v>27</v>
       </c>
       <c r="R106" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,35 +8443,35 @@
         <v>40</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J107" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N107" s="5" t="s">
         <v>117</v>
@@ -8483,7 +8481,7 @@
         <v>27</v>
       </c>
       <c r="R107" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8494,35 +8492,35 @@
         <v>40</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J108" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N108" s="5" t="s">
         <v>117</v>
@@ -8532,7 +8530,7 @@
         <v>27</v>
       </c>
       <c r="R108" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8543,35 +8541,35 @@
         <v>40</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J109" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>117</v>
@@ -8581,7 +8579,7 @@
         <v>27</v>
       </c>
       <c r="R109" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8592,7 +8590,7 @@
         <v>40</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="21" t="s">
@@ -8602,25 +8600,25 @@
         <v>36</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J110" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>117</v>
@@ -8630,7 +8628,7 @@
         <v>27</v>
       </c>
       <c r="R110" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8641,35 +8639,35 @@
         <v>40</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N111" s="5" t="s">
         <v>117</v>
@@ -8679,7 +8677,7 @@
         <v>27</v>
       </c>
       <c r="R111" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8690,35 +8688,35 @@
         <v>40</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="32"/>
       <c r="E112" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>36</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I112" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J112" s="32" t="s">
         <v>25</v>
       </c>
       <c r="K112" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L112" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M112" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N112" s="12" t="s">
         <v>117</v>
@@ -8729,7 +8727,7 @@
         <v>27</v>
       </c>
       <c r="R112" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8740,20 +8738,20 @@
         <v>42</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="4"/>
       <c r="F113" s="0" t="s">
         <v>36</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>45</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
@@ -8776,25 +8774,25 @@
         <v>38</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>36</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>50</v>
       </c>
       <c r="I114" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J114" s="0" t="s">
         <v>50</v>
       </c>
       <c r="K114" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>117</v>
@@ -8831,26 +8829,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="25.2145748987854"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="84.7165991902834"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3603238866397"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.2550607287449"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="64.0283400809717"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="121.566801619433"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="64.0283400809717"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="247.417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.9757085020243"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="9.78947368421053"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.6113360323887"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.20647773279352"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="42.2348178137652"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.7935222672065"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6113360323887"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3036437246964"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6113360323887"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.1133603238866"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="44.8056680161943"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="65.6194331983806"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="124.623481781377"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="65.6194331983806"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="253.655870445344"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.6113360323887"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.97570850202429"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="9.91093117408907"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="43.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8858,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -8873,55 +8871,55 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>20</v>
@@ -8937,7 +8935,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>107</v>
@@ -8946,7 +8944,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>38</v>
@@ -8973,28 +8971,28 @@
         <v>40</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="S2" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="U2" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="X2" s="7" t="s">
         <v>27</v>
@@ -9008,13 +9006,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>25</v>
@@ -9026,26 +9024,26 @@
         <v>25</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="20"/>
       <c r="P3" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q3" s="37"/>
       <c r="R3" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S3" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="U3" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V3" s="5" t="n">
         <v>1</v>
@@ -9055,7 +9053,7 @@
         <v>27</v>
       </c>
       <c r="AC3" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9066,19 +9064,19 @@
         <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>38</v>
@@ -9089,35 +9087,35 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="Q4" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="S4" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="U4" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="W4" s="37"/>
       <c r="X4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="AC4" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,19 +9126,19 @@
         <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>38</v>
@@ -9152,21 +9150,21 @@
       <c r="N5" s="7"/>
       <c r="O5" s="20"/>
       <c r="P5" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="37"/>
       <c r="R5" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S5" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="37"/>
       <c r="V5" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W5" s="37" t="s">
         <v>117</v>
@@ -9184,49 +9182,49 @@
         <v>41</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>38</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O6" s="19"/>
       <c r="P6" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="40"/>
       <c r="R6" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T6" s="12" t="n">
         <v>0</v>
@@ -9240,7 +9238,7 @@
         <v>27</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
@@ -9255,44 +9253,44 @@
         <v>43</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="20"/>
       <c r="P7" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="37"/>
       <c r="R7" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="U7" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V7" s="5" t="n">
         <v>1</v>
@@ -9311,20 +9309,20 @@
         <v>44</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
         <v>93</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -9332,7 +9330,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
@@ -9357,13 +9355,13 @@
         <v>27</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9391,19 +9389,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="129.522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="42.3562753036437"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="56.6801619433198"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="43" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="132.704453441296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="43.331983805668"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="58.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="28.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="43" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" s="45" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>354</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>355</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -9411,13 +9409,13 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="46"/>
       <c r="B2" s="47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
@@ -10442,13 +10440,13 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>359</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>360</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="0"/>
@@ -11474,16 +11472,16 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>362</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
@@ -12508,13 +12506,13 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>359</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>360</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>51</v>
@@ -13542,13 +13540,13 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>364</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>365</v>
       </c>
       <c r="D6" s="53"/>
       <c r="E6" s="0"/>
@@ -14574,13 +14572,13 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>366</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>367</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="0"/>
@@ -15606,13 +15604,13 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="C8" s="52" t="s">
         <v>369</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>370</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="0"/>
@@ -16638,16 +16636,16 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>371</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>372</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -17672,16 +17670,16 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B10" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>370</v>
-      </c>
       <c r="D10" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -18706,13 +18704,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>374</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>375</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="0"/>
@@ -19738,10 +19736,10 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>376</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>377</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="53"/>
@@ -20768,10 +20766,10 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>53</v>
@@ -21800,13 +21798,13 @@
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D14" s="53"/>
       <c r="E14" s="0"/>
@@ -22832,10 +22830,10 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>39</v>
@@ -24891,7 +24889,7 @@
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="54"/>
       <c r="B17" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>37</v>
@@ -25921,10 +25919,10 @@
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="54"/>
       <c r="B18" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>382</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>383</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -26952,7 +26950,7 @@
       <c r="A19" s="54"/>
       <c r="B19" s="56"/>
       <c r="C19" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
@@ -27979,7 +27977,7 @@
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
       <c r="B20" s="57" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>53</v>
@@ -29010,7 +29008,7 @@
       <c r="A21" s="0"/>
       <c r="B21" s="57"/>
       <c r="C21" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -30038,7 +30036,7 @@
       <c r="A22" s="0"/>
       <c r="B22" s="57"/>
       <c r="C22" s="55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
@@ -31065,10 +31063,10 @@
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
       <c r="B23" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
@@ -33128,7 +33126,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
@@ -34155,10 +34153,10 @@
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>390</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>391</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
@@ -38262,7 +38260,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="59" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -40318,7 +40316,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -41346,7 +41344,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -42374,7 +42372,7 @@
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
@@ -44430,7 +44428,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B36" s="0"/>
       <c r="C36" s="0"/>
@@ -45458,7 +45456,7 @@
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
@@ -46577,13 +46575,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="134.906882591093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.4696356275304"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.4655870445344"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="138.210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="89.8582995951417"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46591,30 +46589,30 @@
         <v>37</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="D1" s="60" t="s">
         <v>398</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>399</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="61" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="D2" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -46622,16 +46620,16 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>111</v>
@@ -46639,67 +46637,67 @@
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="D5" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="D6" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>403</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>24</v>
@@ -46707,67 +46705,67 @@
     </row>
     <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="D8" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>421</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="0" t="s">
         <v>426</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>428</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="D11" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>430</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>24</v>
@@ -46775,50 +46773,50 @@
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="D13" s="62" t="s">
-        <v>437</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="61" t="s">
         <v>439</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>429</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>440</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>24</v>
@@ -46826,13 +46824,13 @@
     </row>
     <row r="15" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>24</v>
@@ -46840,30 +46838,30 @@
     </row>
     <row r="16" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>444</v>
-      </c>
       <c r="F16" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>24</v>
@@ -46871,36 +46869,36 @@
     </row>
     <row r="18" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>448</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>451</v>
-      </c>
       <c r="F19" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46908,13 +46906,13 @@
         <v>53</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46922,10 +46920,10 @@
         <v>53</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21" s="0" t="s">
@@ -46937,14 +46935,14 @@
         <v>53</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C22" s="63" t="s">
         <v>454</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>455</v>
       </c>
       <c r="D22" s="4"/>
       <c r="F22" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46952,13 +46950,13 @@
         <v>53</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C23" s="61" t="s">
         <v>456</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="D23" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>24</v>
@@ -46969,13 +46967,13 @@
         <v>53</v>
       </c>
       <c r="B24" s="61" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>456</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>457</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>24</v>
@@ -46986,14 +46984,14 @@
         <v>53</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="C25" s="63" t="s">
         <v>461</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>462</v>
       </c>
       <c r="D25" s="4"/>
       <c r="F25" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47001,27 +46999,27 @@
         <v>53</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>465</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>467</v>
-      </c>
       <c r="C27" s="61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D27" s="4"/>
       <c r="F27" s="0" t="s">
@@ -47030,318 +47028,318 @@
     </row>
     <row r="28" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C28" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="D28" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="D28" s="62" t="s">
-        <v>470</v>
-      </c>
       <c r="F28" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="G29" s="0" t="s">
         <v>473</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="30" s="6" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D30" s="64"/>
       <c r="F30" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>479</v>
-      </c>
       <c r="F31" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>420</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="F32" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D34" s="4"/>
       <c r="F34" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D35" s="4"/>
       <c r="F35" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D36" s="4"/>
       <c r="F36" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>488</v>
-      </c>
       <c r="F37" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D39" s="4"/>
       <c r="F39" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>495</v>
-      </c>
       <c r="F40" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>498</v>
-      </c>
       <c r="F41" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>501</v>
-      </c>
       <c r="F42" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>504</v>
-      </c>
       <c r="F43" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>506</v>
-      </c>
       <c r="F44" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>508</v>
-      </c>
       <c r="F45" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/KCUS/Data/KEngine_KC_US.xlsx
+++ b/Projects/KCUS/Data/KEngine_KC_US.xlsx
@@ -70,6 +70,8 @@
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Original Customer questions'!$F$1:$F$46</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2211,32 +2213,32 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X36" activeCellId="0" sqref="X36"/>
+      <selection pane="bottomRight" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="72.3562753036437"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.2591093117409"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="39.1781376518219"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="39.663967611336"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="147.032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.6113360323887"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="147.761133603239"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="65.251012145749"/>
-    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="11.5060728744939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8704453441296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.9028340080972"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6072874493927"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.7692307692308"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="31.587044534413"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.0121457489879"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="41.5060728744939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="154.493927125506"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="155.109311740891"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="20" min="18" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.93522267206478"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.78947368421053"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,20 +3487,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9109311740891"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="100.263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3805668016194"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.1781376518219"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="88.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.9514170040486"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="18.6113360323887"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="106.506072874494"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.3603238866397"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0404858299595"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3603238866397"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="58.0283400809717"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.0121457489879"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="92.9230769230769"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="112.016194331984"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.78947368421053"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8829,26 +8831,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.7935222672065"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6113360323887"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.6113360323887"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.1133603238866"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="44.8056680161943"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="65.6194331983806"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="124.623481781377"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="65.6194331983806"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="253.655870445344"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="18.6113360323887"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.97570850202429"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="9.91093117408907"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="27.2995951417004"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="43.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.080971659919"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0971659919028"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.8259109311741"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="46.8906882591093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="68.919028340081"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="130.740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="68.919028340081"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="1.18218623481781"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="10.1619433198381"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3481781376518"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.93522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="28.5222672064777"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="9.78947368421053"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9389,11 +9391,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="132.704453441296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="43.331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="58.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="28.5222672064777"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="43" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="139.441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="45.5384615384615"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="29.748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="43" width="9.78947368421053"/>
   </cols>
   <sheetData>
     <row r="1" s="45" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46575,13 +46577,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="138.210526315789"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="89.8582995951417"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.080971659919"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4048582995951"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="145.19028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="103.935222672065"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.2631578947368"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.78947368421053"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
